--- a/wedge_research/data_sa.xlsx
+++ b/wedge_research/data_sa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeykhatuntsev/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1BC04-7E67-DF40-86C2-55D1E3F2FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1F07A-B468-4466-A306-8D85264760F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="520" windowWidth="23720" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="22280" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="3" r:id="rId1"/>
@@ -85,12 +85,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,6 +123,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,23 +156,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Гиперссылка 2" xfId="6" xr:uid="{85685412-98D1-42C0-A3BF-21E1FFE51287}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="4" xr:uid="{B1818C7D-6FDE-4391-9659-0184F93FB1D3}"/>
+    <cellStyle name="Обычный 3" xfId="7" xr:uid="{5DC03412-44DB-4D38-B4B7-0DE5509F698F}"/>
+    <cellStyle name="Обычный 4" xfId="2" xr:uid="{0D2FDF70-0A06-4339-866A-1521CDBC6FA2}"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Процентный 2" xfId="5" xr:uid="{1D000C95-4885-4172-87B7-8AF81CC47ACA}"/>
+    <cellStyle name="Процентный 3" xfId="3" xr:uid="{41A9ABFF-5877-4D25-AACC-C58D83B63BC3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2324,9 +2360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2364,9 +2400,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2399,26 +2435,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2451,26 +2470,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2644,18 +2646,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15864C2-A5E3-D44F-9C2D-FF5A277DF308}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93:H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
+    <col min="8" max="8" width="26.81640625" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>42400</v>
       </c>
@@ -2713,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24788.034419019099</v>
+        <v>24763.16</v>
       </c>
       <c r="J2">
-        <v>63853.677854593603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63699.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>42429</v>
       </c>
@@ -2745,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>45440.631670144197</v>
+        <v>45394.51</v>
       </c>
       <c r="J3">
-        <v>56219.790095276199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>57879.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>42460</v>
       </c>
@@ -2777,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22945.090439915501</v>
+        <v>22954.74</v>
       </c>
       <c r="J4">
-        <v>55569.403501688503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>52493.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>42490</v>
       </c>
@@ -2809,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22062.981464544599</v>
+        <v>22096.75</v>
       </c>
       <c r="J5">
-        <v>56448.058947868201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54651.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>42521</v>
       </c>
@@ -2841,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23179.6915280951</v>
+        <v>23287.01</v>
       </c>
       <c r="J6">
-        <v>54149.570212650397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56461.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>42551</v>
       </c>
@@ -2873,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22275.122236880499</v>
+        <v>22376.720000000001</v>
       </c>
       <c r="J7">
-        <v>48147.195043686799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>49049.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>42582</v>
       </c>
@@ -2905,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22254.7852567298</v>
+        <v>22339.16</v>
       </c>
       <c r="J8">
-        <v>43938.748342837302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46889.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>42613</v>
       </c>
@@ -2937,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21739.999273319001</v>
+        <v>21848.43</v>
       </c>
       <c r="J9">
-        <v>41101.768598871502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>42643</v>
       </c>
@@ -2969,13 +2980,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22642.672829984502</v>
+        <v>22482.26</v>
       </c>
       <c r="J10">
-        <v>34917.348085226397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37140.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>42674</v>
       </c>
@@ -3001,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23745.804570082699</v>
+        <v>23621.98</v>
       </c>
       <c r="J11">
-        <v>31868.1949651414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32846.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>42704</v>
       </c>
@@ -3033,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24825.9136376969</v>
+        <v>24764.12</v>
       </c>
       <c r="J12">
-        <v>34068.7639755333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31530.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>42735</v>
       </c>
@@ -3065,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30642.691240878299</v>
+        <v>30618.01</v>
       </c>
       <c r="J13">
-        <v>33346.3252954825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31290.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>42766</v>
       </c>
@@ -3097,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21757.9231806967</v>
+        <v>21748.76</v>
       </c>
       <c r="J14">
-        <v>64119.396622677799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63966.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>42794</v>
       </c>
@@ -3129,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19747.306837215001</v>
+        <v>19726.84</v>
       </c>
       <c r="J15">
-        <v>59481.8273973326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60678.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>42825</v>
       </c>
@@ -3161,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23800.287552973899</v>
+        <v>23812.799999999999</v>
       </c>
       <c r="J16">
-        <v>62279.185983099997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60120.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>42855</v>
       </c>
@@ -3193,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26068.0955934716</v>
+        <v>26095.93</v>
       </c>
       <c r="J17">
-        <v>64804.290496880698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63402.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>42886</v>
       </c>
@@ -3225,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27287.885451653801</v>
+        <v>27428.83</v>
       </c>
       <c r="J18">
-        <v>63419.6697639739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>65267.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>42916</v>
       </c>
@@ -3257,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25205.717715422601</v>
+        <v>25323.25</v>
       </c>
       <c r="J19">
-        <v>62171.611874841903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62942.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>42947</v>
       </c>
@@ -3289,13 +3300,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25333.923543539</v>
+        <v>25431.53</v>
       </c>
       <c r="J20">
-        <v>61220.333854884899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63339.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>42978</v>
       </c>
@@ -3321,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24254.135056598701</v>
+        <v>24380.01</v>
       </c>
       <c r="J21">
-        <v>59919.7934014372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58890.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43008</v>
       </c>
@@ -3353,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26048.7281155495</v>
+        <v>25846.11</v>
       </c>
       <c r="J22">
-        <v>60574.544679915598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62147.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43039</v>
       </c>
@@ -3385,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27816.857295277401</v>
+        <v>27680.94</v>
       </c>
       <c r="J23">
-        <v>64240.5710177656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64891.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43069</v>
       </c>
@@ -3417,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28845.1346703817</v>
+        <v>28759.56</v>
       </c>
       <c r="J24">
-        <v>74622.880975875494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>72881.429999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43100</v>
       </c>
@@ -3449,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33222.475338615899</v>
+        <v>33165.07</v>
       </c>
       <c r="J25">
-        <v>83717.659827135707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>82247.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43131</v>
       </c>
@@ -3481,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>31023.7332725206</v>
+        <v>31037.14</v>
       </c>
       <c r="J26">
-        <v>91486.411571689998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91294.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43159</v>
       </c>
@@ -3513,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>32000.8172731835</v>
+        <v>31992.04</v>
       </c>
       <c r="J27">
-        <v>93057.658713979807</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>93904.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43190</v>
       </c>
@@ -3545,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>30606.704970308099</v>
+        <v>30608.87</v>
       </c>
       <c r="J28">
-        <v>96718.2181293959</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95272.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43220</v>
       </c>
@@ -3577,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>31440.824582269499</v>
+        <v>31493.22</v>
       </c>
       <c r="J29">
-        <v>97361.6525336833</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96186.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43251</v>
       </c>
@@ -3609,13 +3620,13 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>33986.777166239503</v>
+        <v>34142.959999999999</v>
       </c>
       <c r="J30">
-        <v>97293.998099459495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>98862.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>43281</v>
       </c>
@@ -3641,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>30848.212585105401</v>
+        <v>30977.15</v>
       </c>
       <c r="J31">
-        <v>96843.574502334304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>97570.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43312</v>
       </c>
@@ -3673,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>30659.794559236401</v>
+        <v>30804.78</v>
       </c>
       <c r="J32">
-        <v>89141.252962219005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90641.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>43343</v>
       </c>
@@ -3705,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>29376.701886381601</v>
+        <v>29548.79</v>
       </c>
       <c r="J33">
-        <v>85592.752156366594</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84607.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>43373</v>
       </c>
@@ -3737,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>29547.466088125399</v>
+        <v>29304.66</v>
       </c>
       <c r="J34">
-        <v>84946.4874751303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86054.87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>43404</v>
       </c>
@@ -3769,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>29676.795289135702</v>
+        <v>29543.21</v>
       </c>
       <c r="J35">
-        <v>86016.8647804254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86432.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>43434</v>
       </c>
@@ -3801,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>30302.978184463202</v>
+        <v>30194.84</v>
       </c>
       <c r="J36">
-        <v>91740.738695054795</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90629.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>43465</v>
       </c>
@@ -3833,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>30689.2453340184</v>
+        <v>30613.91</v>
       </c>
       <c r="J37">
-        <v>93359.467841147896</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>92308.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>43496</v>
       </c>
@@ -3865,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>33694.821454939003</v>
+        <v>33707.800000000003</v>
       </c>
       <c r="J38">
-        <v>93946.384003479907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>93681.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43524</v>
       </c>
@@ -3897,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>34061.443454146698</v>
+        <v>34073.160000000003</v>
       </c>
       <c r="J39">
-        <v>94923.162716400097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95478.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>43555</v>
       </c>
@@ -3929,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>29645.760648326101</v>
+        <v>29634.29</v>
       </c>
       <c r="J40">
-        <v>87533.1356062165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86633.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>43585</v>
       </c>
@@ -3961,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>28450.5910263923</v>
+        <v>28512.400000000001</v>
       </c>
       <c r="J41">
-        <v>81290.412512000796</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80205.61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>43616</v>
       </c>
@@ -3993,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>28253.425899912199</v>
+        <v>28357.73</v>
       </c>
       <c r="J42">
-        <v>71930.482463966604</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>73363.53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43646</v>
       </c>
@@ -4025,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>30144.336155577901</v>
+        <v>30254.98</v>
       </c>
       <c r="J43">
-        <v>79669.233401519901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80413.789999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43677</v>
       </c>
@@ -4057,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>23539.672302802199</v>
+        <v>23678.71</v>
       </c>
       <c r="J44">
-        <v>73094.758577522705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74135.850000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43708</v>
       </c>
@@ -4089,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>25566.275924175301</v>
+        <v>25726.2</v>
       </c>
       <c r="J45">
-        <v>77786.018695616105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>76778.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>43738</v>
       </c>
@@ -4121,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>25639.9490947503</v>
+        <v>25458.99</v>
       </c>
       <c r="J46">
-        <v>72288.754955020398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>73046.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>43769</v>
       </c>
@@ -4153,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>26578.001356609799</v>
+        <v>26457.13</v>
       </c>
       <c r="J47">
-        <v>72229.707393187302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>72484.78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43799</v>
       </c>
@@ -4185,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>28309.786515341799</v>
+        <v>28175.59</v>
       </c>
       <c r="J48">
-        <v>83420.830865114607</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>82837.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>43830</v>
       </c>
@@ -4217,13 +4228,13 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>29800.592721073899</v>
+        <v>29718.78</v>
       </c>
       <c r="J49">
-        <v>90167.848889668399</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89405.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>43861</v>
       </c>
@@ -4249,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>32862.652015868</v>
+        <v>32855.31</v>
       </c>
       <c r="J50">
-        <v>97965.358933401396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>97575.28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>43890</v>
       </c>
@@ -4281,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>33987.154176394797</v>
+        <v>33980.800000000003</v>
       </c>
       <c r="J51">
-        <v>105447.807720857</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>105743.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>43921</v>
       </c>
@@ -4313,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>33214.758966325302</v>
+        <v>33225.699999999997</v>
       </c>
       <c r="J52">
-        <v>107277.36246059601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106797.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>43951</v>
       </c>
@@ -4345,13 +4356,13 @@
         <v>7.2150813678786294E-3</v>
       </c>
       <c r="I53">
-        <v>19535.267151202501</v>
+        <v>19575.009999999998</v>
       </c>
       <c r="J53">
-        <v>75853.868969381903</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74759.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>43982</v>
       </c>
@@ -4377,13 +4388,13 @@
         <v>1.553082064620475E-2</v>
       </c>
       <c r="I54">
-        <v>37007.565545549704</v>
+        <v>37059.040000000001</v>
       </c>
       <c r="J54">
-        <v>80440.988086365003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>81915.94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>44012</v>
       </c>
@@ -4409,13 +4420,13 @@
         <v>1.2108213790976031E-2</v>
       </c>
       <c r="I55">
-        <v>41868.450765997703</v>
+        <v>42073.93</v>
       </c>
       <c r="J55">
-        <v>87476.971217776401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>88282.49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>44043</v>
       </c>
@@ -4441,13 +4452,13 @@
         <v>1.082674441785161E-2</v>
       </c>
       <c r="I56">
-        <v>46860.330569601203</v>
+        <v>47187.47</v>
       </c>
       <c r="J56">
-        <v>101385.52332355799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>102096.79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>44074</v>
       </c>
@@ -4473,13 +4484,13 @@
         <v>9.9408026790385809E-3</v>
       </c>
       <c r="I57">
-        <v>48254.503844629398</v>
+        <v>48596.26</v>
       </c>
       <c r="J57">
-        <v>111462.704238135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110346.62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>44104</v>
       </c>
@@ -4505,13 +4516,13 @@
         <v>8.8616020103216078E-3</v>
       </c>
       <c r="I58">
-        <v>46615.038328180097</v>
+        <v>46362.31</v>
       </c>
       <c r="J58">
-        <v>128877.950816707</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>129378.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>44135</v>
       </c>
@@ -4537,13 +4548,13 @@
         <v>8.945793904322312E-3</v>
       </c>
       <c r="I59">
-        <v>51414.391687110197</v>
+        <v>51159.360000000001</v>
       </c>
       <c r="J59">
-        <v>136645.84728937899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136796.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>44165</v>
       </c>
@@ -4569,13 +4580,13 @@
         <v>8.8117342730610337E-3</v>
       </c>
       <c r="I60">
-        <v>42667.158898146197</v>
+        <v>42455.07</v>
       </c>
       <c r="J60">
-        <v>134185.78933838799</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>134068.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>44196</v>
       </c>
@@ -4601,13 +4612,13 @@
         <v>9.3541044967935597E-3</v>
       </c>
       <c r="I61">
-        <v>40052.171995012199</v>
+        <v>39939.410000000003</v>
       </c>
       <c r="J61">
-        <v>128332.059646155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v>127787.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>44227</v>
       </c>
@@ -4633,13 +4644,13 @@
         <v>8.7046213556422405E-3</v>
       </c>
       <c r="I62">
-        <v>41158.776491149503</v>
+        <v>41066.46</v>
       </c>
       <c r="J62">
-        <v>114795.970517182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114269.41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>44255</v>
       </c>
@@ -4665,13 +4676,13 @@
         <v>7.7722859658240079E-3</v>
       </c>
       <c r="I63">
-        <v>43253.739904208698</v>
+        <v>43254.92</v>
       </c>
       <c r="J63">
-        <v>127446.714750447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>127486.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>44286</v>
       </c>
@@ -4697,13 +4708,13 @@
         <v>7.1159812432429331E-3</v>
       </c>
       <c r="I64">
-        <v>41714.556812413197</v>
+        <v>41767.660000000003</v>
       </c>
       <c r="J64">
-        <v>138189.173071745</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>138080.60999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>44316</v>
       </c>
@@ -4729,13 +4740,13 @@
         <v>9.4776598255838021E-3</v>
       </c>
       <c r="I65">
-        <v>45583.569654576</v>
+        <v>45675.41</v>
       </c>
       <c r="J65">
-        <v>143134.098175116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>141927.29999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>44347</v>
       </c>
@@ -4761,13 +4772,13 @@
         <v>1.308168883711627E-2</v>
       </c>
       <c r="I66">
-        <v>46382.663892781697</v>
+        <v>46404.09</v>
       </c>
       <c r="J66">
-        <v>127842.51507051699</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>129507.76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>44377</v>
       </c>
@@ -4793,13 +4804,13 @@
         <v>1.418492508512881E-2</v>
       </c>
       <c r="I67">
-        <v>54526.590146697701</v>
+        <v>54762.67</v>
       </c>
       <c r="J67">
-        <v>126254.713730506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>127235.92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>44408</v>
       </c>
@@ -4825,13 +4836,13 @@
         <v>6.8074489008346584E-3</v>
       </c>
       <c r="I68">
-        <v>28457.2613224659</v>
+        <v>28652</v>
       </c>
       <c r="J68">
-        <v>120578.645128419</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121043.04</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>44439</v>
       </c>
@@ -4857,13 +4868,13 @@
         <v>7.1271420667416152E-3</v>
       </c>
       <c r="I69">
-        <v>29570.422814981201</v>
+        <v>29822.52</v>
       </c>
       <c r="J69">
-        <v>111959.85639891701</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110596.79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>44469</v>
       </c>
@@ -4889,13 +4900,13 @@
         <v>9.4043768869424352E-3</v>
       </c>
       <c r="I70">
-        <v>31198.516361439099</v>
+        <v>31046.34</v>
       </c>
       <c r="J70">
-        <v>105431.953496659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>105708.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>44500</v>
       </c>
@@ -4921,13 +4932,13 @@
         <v>1.26981481856497E-2</v>
       </c>
       <c r="I71">
-        <v>36008.612957472302</v>
+        <v>35790.18</v>
       </c>
       <c r="J71">
-        <v>108965.587602236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>108990.81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>44530</v>
       </c>
@@ -4953,13 +4964,13 @@
         <v>1.506779678485062E-2</v>
       </c>
       <c r="I72">
-        <v>37968.2907728996</v>
+        <v>37797.660000000003</v>
       </c>
       <c r="J72">
-        <v>104751.64028763</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>105055.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>44561</v>
       </c>
@@ -4985,13 +4996,13 @@
         <v>1.7650545971450111E-2</v>
       </c>
       <c r="I73">
-        <v>43721.475329404799</v>
+        <v>43584.66</v>
       </c>
       <c r="J73">
-        <v>105903.792769594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>105528.08</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>44592</v>
       </c>
@@ -5017,13 +5028,13 @@
         <v>2.050596741205955E-2</v>
       </c>
       <c r="I74">
-        <v>50201.230851132801</v>
+        <v>50067</v>
       </c>
       <c r="J74">
-        <v>109670.890114682</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>108956.55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>44620</v>
       </c>
@@ -5049,13 +5060,13 @@
         <v>2.350832046880524E-2</v>
       </c>
       <c r="I75">
-        <v>51347.8327851914</v>
+        <v>51353.65</v>
       </c>
       <c r="J75">
-        <v>112282.889816825</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+        <v>112073.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>44651</v>
       </c>
@@ -5081,13 +5092,13 @@
         <v>3.2828468382591729E-2</v>
       </c>
       <c r="I76">
-        <v>61145.408421345099</v>
+        <v>61272.02</v>
       </c>
       <c r="J76">
-        <v>103024.126996202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>103269.63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>44681</v>
       </c>
@@ -5113,13 +5124,13 @@
         <v>3.7123761132366311E-2</v>
       </c>
       <c r="I77">
-        <v>20866.4034829997</v>
+        <v>20901.400000000001</v>
       </c>
       <c r="J77">
-        <v>30958.920685873101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29502.68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>44712</v>
       </c>
@@ -5145,13 +5156,13 @@
         <v>5.8092047044719639E-2</v>
       </c>
       <c r="I78">
-        <v>18429.538632658499</v>
+        <v>18443.46</v>
       </c>
       <c r="J78">
-        <v>33243.2208430881</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35251.24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>44742</v>
       </c>
@@ -5177,13 +5188,13 @@
         <v>4.8846534475089798E-2</v>
       </c>
       <c r="I79">
-        <v>22668.0767182731</v>
+        <v>22753.119999999999</v>
       </c>
       <c r="J79">
-        <v>43162.344029924403</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44415.199999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>44773</v>
       </c>
@@ -5209,13 +5220,13 @@
         <v>4.6403914403294277E-2</v>
       </c>
       <c r="I80">
-        <v>27925.270300335698</v>
+        <v>28107.56</v>
       </c>
       <c r="J80">
-        <v>65759.256762574194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66017.679999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>44804</v>
       </c>
@@ -5241,13 +5252,13 @@
         <v>4.4392491167210918E-2</v>
       </c>
       <c r="I81">
-        <v>28517.014110155302</v>
+        <v>28801.81</v>
       </c>
       <c r="J81">
-        <v>78075.386220856395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>76336.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>44834</v>
       </c>
@@ -5273,13 +5284,13 @@
         <v>4.5652243009095282E-2</v>
       </c>
       <c r="I82">
-        <v>30371.913974915999</v>
+        <v>30242.81</v>
       </c>
       <c r="J82">
-        <v>84249.985960264094</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84337.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>44865</v>
       </c>
@@ -5305,13 +5316,13 @@
         <v>4.4376757895005309E-2</v>
       </c>
       <c r="I83">
-        <v>25242.913455858001</v>
+        <v>25078.36</v>
       </c>
       <c r="J83">
-        <v>86388.677894653098</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86279.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>44895</v>
       </c>
@@ -5337,13 +5348,13 @@
         <v>4.8539879109245343E-2</v>
       </c>
       <c r="I84">
-        <v>30398.8813362867</v>
+        <v>30259.72</v>
       </c>
       <c r="J84">
-        <v>85965.472134729702</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86741.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>44926</v>
       </c>
@@ -5369,13 +5380,13 @@
         <v>4.8068820684467772E-2</v>
       </c>
       <c r="I85">
-        <v>47697.249428887197</v>
+        <v>47501.48</v>
       </c>
       <c r="J85">
-        <v>91670.693351923503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91448.37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>44957</v>
       </c>
@@ -5401,13 +5412,13 @@
         <v>3.8236790518899583E-2</v>
       </c>
       <c r="I86">
-        <v>30903.564123992099</v>
+        <v>30823.21</v>
       </c>
       <c r="J86">
-        <v>99754.458489427605</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+        <v>98786.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>44985</v>
       </c>
@@ -5433,13 +5444,13 @@
         <v>3.6138547548794982E-2</v>
       </c>
       <c r="I87">
-        <v>38202.011247818402</v>
+        <v>38204.32</v>
       </c>
       <c r="J87">
-        <v>103238.820175781</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>102766.68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45016</v>
       </c>
@@ -5465,13 +5476,13 @@
         <v>3.1843167138860852E-2</v>
       </c>
       <c r="I88">
-        <v>44440.005471445198</v>
+        <v>44549.36</v>
       </c>
       <c r="J88">
-        <v>110607.791398211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+        <v>111252.24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45046</v>
       </c>
@@ -5497,13 +5508,13 @@
         <v>2.7150337762047529E-2</v>
       </c>
       <c r="I89">
-        <v>44305.323118061402</v>
+        <v>44353.23</v>
       </c>
       <c r="J89">
-        <v>117112.821099842</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+        <v>115286.89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45077</v>
       </c>
@@ -5529,13 +5540,13 @@
         <v>2.5395660654278829E-2</v>
       </c>
       <c r="I90">
-        <v>50684.594862744998</v>
+        <v>50756.81</v>
       </c>
       <c r="J90">
-        <v>120892.814172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>123475.44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45107</v>
       </c>
@@ -5561,13 +5572,13 @@
         <v>2.4746248670718621E-2</v>
       </c>
       <c r="I91">
-        <v>46583.624964400202</v>
+        <v>46731.71</v>
       </c>
       <c r="J91">
-        <v>120973.734030263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122643.16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45138</v>
       </c>
@@ -5593,13 +5604,13 @@
         <v>2.4311718222558419E-2</v>
       </c>
       <c r="I92">
-        <v>53573.913229396603</v>
+        <v>53911.64</v>
       </c>
       <c r="J92">
-        <v>120214.44905562</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120270.65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45169</v>
       </c>
@@ -5622,14 +5633,59 @@
         <v>1.266222101290802E-2</v>
       </c>
       <c r="H93">
-        <v>2.640048147528291E-2</v>
+        <v>2.64004814752829E-2</v>
       </c>
       <c r="I93">
-        <v>66187.476429577902</v>
+        <v>66867.070000000007</v>
       </c>
       <c r="J93">
-        <v>128691.372377835</v>
-      </c>
+        <v>126386.29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>45199</v>
+      </c>
+      <c r="B94">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="C94">
+        <v>93022</v>
+      </c>
+      <c r="D94">
+        <v>145320</v>
+      </c>
+      <c r="E94">
+        <v>0.100820447910985</v>
+      </c>
+      <c r="F94">
+        <v>4.2520447910985006E-2</v>
+      </c>
+      <c r="G94">
+        <v>1.266222101290802E-2</v>
+      </c>
+      <c r="H94">
+        <v>2.9858226898076986E-2</v>
+      </c>
+      <c r="I94">
+        <v>80462.880000000005</v>
+      </c>
+      <c r="J94">
+        <v>132437.89000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D99" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5638,21 +5694,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509032C8-CDF2-3649-A1CA-14CF8B7B282E}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>42825</v>
       </c>
@@ -5706,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>42855</v>
       </c>
@@ -5734,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>42886</v>
       </c>
@@ -5762,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>42916</v>
       </c>
@@ -5790,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>42947</v>
       </c>
@@ -5818,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>42978</v>
       </c>
@@ -5846,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>43008</v>
       </c>
@@ -5874,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>43039</v>
       </c>
@@ -5902,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>43069</v>
       </c>
@@ -5930,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>43100</v>
       </c>
@@ -5958,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>43131</v>
       </c>
@@ -5986,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>43159</v>
       </c>
@@ -6014,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>43190</v>
       </c>
@@ -6042,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>43220</v>
       </c>
@@ -6070,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>43251</v>
       </c>
@@ -6098,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>43281</v>
       </c>
@@ -6126,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>43312</v>
       </c>
@@ -6154,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>43343</v>
       </c>
@@ -6182,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>43373</v>
       </c>
@@ -6210,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>43404</v>
       </c>
@@ -6238,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43434</v>
       </c>
@@ -6266,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43465</v>
       </c>
@@ -6294,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43496</v>
       </c>
@@ -6322,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43524</v>
       </c>
@@ -6350,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43555</v>
       </c>
@@ -6378,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43585</v>
       </c>
@@ -6406,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43616</v>
       </c>
@@ -6434,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43646</v>
       </c>
@@ -6462,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43677</v>
       </c>
@@ -6490,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>43708</v>
       </c>
@@ -6518,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43738</v>
       </c>
@@ -6546,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>43769</v>
       </c>
@@ -6574,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>43799</v>
       </c>
@@ -6602,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>43830</v>
       </c>
@@ -6630,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>43861</v>
       </c>
@@ -6658,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>43890</v>
       </c>
@@ -6686,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>43921</v>
       </c>
@@ -6714,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43951</v>
       </c>
@@ -6742,7 +6798,7 @@
         <v>7.2150813678786294E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>43982</v>
       </c>
@@ -6770,7 +6826,7 @@
         <v>1.553082064620475E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>44012</v>
       </c>
@@ -6798,7 +6854,7 @@
         <v>1.2108213790976031E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>44043</v>
       </c>
@@ -6826,7 +6882,7 @@
         <v>1.082674441785161E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>44074</v>
       </c>
@@ -6854,7 +6910,7 @@
         <v>9.9408026790385809E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>44104</v>
       </c>
@@ -6882,7 +6938,7 @@
         <v>8.8616020103216078E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44135</v>
       </c>
@@ -6910,7 +6966,7 @@
         <v>8.945793904322312E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44165</v>
       </c>
@@ -6938,7 +6994,7 @@
         <v>8.8117342730610337E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>44196</v>
       </c>
@@ -6966,7 +7022,7 @@
         <v>9.3541044967935597E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>44227</v>
       </c>
@@ -6994,7 +7050,7 @@
         <v>8.7046213556422405E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>44255</v>
       </c>
@@ -7022,7 +7078,7 @@
         <v>7.7722859658240079E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>44286</v>
       </c>
@@ -7050,7 +7106,7 @@
         <v>7.1159812432429331E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>44316</v>
       </c>
@@ -7078,7 +7134,7 @@
         <v>9.4776598255838021E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>44347</v>
       </c>
@@ -7106,7 +7162,7 @@
         <v>1.308168883711627E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>44377</v>
       </c>
@@ -7134,7 +7190,7 @@
         <v>1.418492508512881E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>44408</v>
       </c>
@@ -7162,7 +7218,7 @@
         <v>6.8074489008346584E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>44439</v>
       </c>
@@ -7190,7 +7246,7 @@
         <v>7.1271420667416152E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>44469</v>
       </c>
@@ -7218,7 +7274,7 @@
         <v>9.4043768869424352E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>44500</v>
       </c>
@@ -7246,7 +7302,7 @@
         <v>1.26981481856497E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>44530</v>
       </c>
@@ -7274,7 +7330,7 @@
         <v>1.506779678485062E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>44561</v>
       </c>
@@ -7302,7 +7358,7 @@
         <v>1.7650545971450111E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>44592</v>
       </c>
@@ -7330,7 +7386,7 @@
         <v>2.050596741205955E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>44620</v>
       </c>
@@ -7358,7 +7414,7 @@
         <v>2.350832046880524E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>44651</v>
       </c>
@@ -7386,7 +7442,7 @@
         <v>3.2828468382591729E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>44681</v>
       </c>
@@ -7414,7 +7470,7 @@
         <v>3.7123761132366311E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>44712</v>
       </c>
@@ -7442,7 +7498,7 @@
         <v>5.8092047044719639E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>44742</v>
       </c>
@@ -7470,7 +7526,7 @@
         <v>4.8846534475089798E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>44773</v>
       </c>
@@ -7498,7 +7554,7 @@
         <v>4.6403914403294277E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>44804</v>
       </c>
@@ -7526,7 +7582,7 @@
         <v>4.4392491167210918E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>44834</v>
       </c>
@@ -7554,7 +7610,7 @@
         <v>4.5652243009095282E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>44865</v>
       </c>
@@ -7582,7 +7638,7 @@
         <v>4.4376757895005309E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>44895</v>
       </c>
@@ -7610,7 +7666,7 @@
         <v>4.8539879109245343E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>44926</v>
       </c>
@@ -7638,7 +7694,7 @@
         <v>4.8068820684467772E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>44957</v>
       </c>
@@ -7666,7 +7722,7 @@
         <v>3.8236790518899583E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>44985</v>
       </c>
@@ -7694,7 +7750,7 @@
         <v>3.6138547548794982E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45016</v>
       </c>
@@ -7722,7 +7778,7 @@
         <v>3.1843167138860852E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45046</v>
       </c>
@@ -7750,7 +7806,7 @@
         <v>2.7150337762047529E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45077</v>
       </c>
@@ -7778,7 +7834,7 @@
         <v>2.5395660654278829E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45107</v>
       </c>
@@ -7806,7 +7862,7 @@
         <v>2.4746248670718621E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45138</v>
       </c>
@@ -7834,7 +7890,7 @@
         <v>2.4311718222558419E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45169</v>
       </c>
@@ -7859,7 +7915,35 @@
         <v>1.266222101290802E-2</v>
       </c>
       <c r="H79">
-        <v>2.640048147528291E-2</v>
+        <v>2.64004814752829E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B80">
+        <f>Sheet1!M94</f>
+        <v>1.26729914441205</v>
+      </c>
+      <c r="C80">
+        <f>Sheet1!O94</f>
+        <v>0.61631054594577972</v>
+      </c>
+      <c r="D80" s="4">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.100820447910985</v>
+      </c>
+      <c r="F80">
+        <v>4.2520447910985006E-2</v>
+      </c>
+      <c r="G80">
+        <v>1.266222101290802E-2</v>
+      </c>
+      <c r="H80">
+        <v>2.9858226898076986E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7869,18 +7953,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93:O94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7912,7 +7996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>42400</v>
       </c>
@@ -7938,13 +8022,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24788.034419019099</v>
+        <v>24763.16</v>
       </c>
       <c r="J2">
-        <v>63853.677854593603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>63699.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>42429</v>
       </c>
@@ -7970,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>45440.631670144197</v>
+        <v>45394.51</v>
       </c>
       <c r="J3">
-        <v>56219.790095276199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>57879.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>42460</v>
       </c>
@@ -8002,13 +8086,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22945.090439915501</v>
+        <v>22954.74</v>
       </c>
       <c r="J4">
-        <v>55569.403501688503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>52493.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>42490</v>
       </c>
@@ -8034,13 +8118,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22062.981464544599</v>
+        <v>22096.75</v>
       </c>
       <c r="J5">
-        <v>56448.058947868201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>54651.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>42521</v>
       </c>
@@ -8066,13 +8150,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23179.6915280951</v>
+        <v>23287.01</v>
       </c>
       <c r="J6">
-        <v>54149.570212650397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>56461.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>42551</v>
       </c>
@@ -8098,13 +8182,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22275.122236880499</v>
+        <v>22376.720000000001</v>
       </c>
       <c r="J7">
-        <v>48147.195043686799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>49049.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>42582</v>
       </c>
@@ -8130,13 +8214,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22254.7852567298</v>
+        <v>22339.16</v>
       </c>
       <c r="J8">
-        <v>43938.748342837302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>46889.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>42613</v>
       </c>
@@ -8162,13 +8246,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21739.999273319001</v>
+        <v>21848.43</v>
       </c>
       <c r="J9">
-        <v>41101.768598871502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>42643</v>
       </c>
@@ -8194,13 +8278,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22642.672829984502</v>
+        <v>22482.26</v>
       </c>
       <c r="J10">
-        <v>34917.348085226397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>37140.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>42674</v>
       </c>
@@ -8226,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23745.804570082699</v>
+        <v>23621.98</v>
       </c>
       <c r="J11">
-        <v>31868.1949651414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>32846.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>42704</v>
       </c>
@@ -8258,13 +8342,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24825.9136376969</v>
+        <v>24764.12</v>
       </c>
       <c r="J12">
-        <v>34068.7639755333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31530.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>42735</v>
       </c>
@@ -8290,13 +8374,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30642.691240878299</v>
+        <v>30618.01</v>
       </c>
       <c r="J13">
-        <v>33346.3252954825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31290.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>42766</v>
       </c>
@@ -8322,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21757.9231806967</v>
+        <v>21748.76</v>
       </c>
       <c r="J14">
-        <v>64119.396622677799</v>
+        <v>63966.84</v>
       </c>
       <c r="L14">
         <f>C14/C2 - 1</f>
@@ -8336,7 +8420,7 @@
         <v>0.19759036144578324</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>42794</v>
       </c>
@@ -8362,21 +8446,21 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19747.306837215001</v>
+        <v>19726.84</v>
       </c>
       <c r="J15">
-        <v>59481.8273973326</v>
+        <v>60678.8</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L78" si="0">C15/C3 - 1</f>
+        <f>C15/C3 - 1</f>
         <v>-0.58491035856573703</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:N78" si="1">D15/D3 - 1</f>
+        <f t="shared" ref="N15:N78" si="0">D15/D3 - 1</f>
         <v>2.6206104774502803E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>42825</v>
       </c>
@@ -8402,13 +8486,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23800.287552973899</v>
+        <v>23812.799999999999</v>
       </c>
       <c r="J16">
-        <v>62279.185983099997</v>
+        <v>60120.79</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f>C16/C4 - 1</f>
         <v>3.7382777373356824E-2</v>
       </c>
       <c r="M16">
@@ -8416,7 +8500,7 @@
         <v>-0.21184852342348001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.17932277260916929</v>
       </c>
       <c r="O16">
@@ -8424,7 +8508,7 @@
         <v>0.13437307960981845</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>42855</v>
       </c>
@@ -8450,29 +8534,29 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26068.0955934716</v>
+        <v>26095.93</v>
       </c>
       <c r="J17">
-        <v>64804.290496880698</v>
+        <v>63402.58</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f>C17/C5 - 1</f>
         <v>0.13733327136682627</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M80" si="2">AVERAGE(L15:L17)</f>
+        <f>AVERAGE(L15:L17)</f>
         <v>-0.13673143660851797</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f>D17/D5 - 1</f>
         <v>0.11788737074610522</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O80" si="3">AVERAGE(N15:N17)</f>
+        <f>AVERAGE(N15:N17)</f>
         <v>0.10780541604325911</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>42886</v>
       </c>
@@ -8498,29 +8582,29 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27287.885451653801</v>
+        <v>27428.83</v>
       </c>
       <c r="J18">
-        <v>63419.6697639739</v>
+        <v>65267.1</v>
       </c>
       <c r="L18">
+        <f>C18/C6 - 1</f>
+        <v>0.22306770208995674</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M17:M80" si="1">AVERAGE(L16:L18)</f>
+        <v>0.13259458361004661</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="0"/>
-        <v>0.22306770208995674</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>0.13259458361004661</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
         <v>0.30456936613903896</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O17:O80" si="2">AVERAGE(N16:N18)</f>
         <v>0.20059316983143782</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>42916</v>
       </c>
@@ -8546,29 +8630,29 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25205.717715422601</v>
+        <v>25323.25</v>
       </c>
       <c r="J19">
-        <v>62171.611874841903</v>
+        <v>62942.07</v>
       </c>
       <c r="L19">
+        <f>C19/C7 - 1</f>
+        <v>0.13168000740295183</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.1640269936199116</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="0"/>
-        <v>0.13168000740295183</v>
-      </c>
-      <c r="M19">
+        <v>0.31656798269571107</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="2"/>
-        <v>0.1640269936199116</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>0.31656798269571107</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
         <v>0.24634157319361841</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>42947</v>
       </c>
@@ -8594,29 +8678,29 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25333.923543539</v>
+        <v>25431.53</v>
       </c>
       <c r="J20">
-        <v>61220.333854884899</v>
+        <v>63339.66</v>
       </c>
       <c r="L20">
+        <f t="shared" ref="L15:L78" si="3">C20/C8 - 1</f>
+        <v>0.13842887473460719</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.16439219474250524</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="0"/>
-        <v>0.13842887473460719</v>
-      </c>
-      <c r="M20">
+        <v>0.37133298436468731</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="2"/>
-        <v>0.16439219474250524</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
-        <v>0.37133298436468731</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
         <v>0.33082344439981243</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>42978</v>
       </c>
@@ -8642,29 +8726,29 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24254.135056598701</v>
+        <v>24380.01</v>
       </c>
       <c r="J21">
-        <v>59919.7934014372</v>
+        <v>58890.09</v>
       </c>
       <c r="L21">
+        <f t="shared" si="3"/>
+        <v>0.11587359244460593</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.12866082486072164</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="0"/>
-        <v>0.11587359244460593</v>
-      </c>
-      <c r="M21">
+        <v>0.38170595302208055</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="2"/>
-        <v>0.12866082486072164</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>0.38170595302208055</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
         <v>0.35653564002749299</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>43008</v>
       </c>
@@ -8690,29 +8774,29 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26048.7281155495</v>
+        <v>25846.11</v>
       </c>
       <c r="J22">
-        <v>60574.544679915598</v>
+        <v>62147.63</v>
       </c>
       <c r="L22">
+        <f t="shared" si="3"/>
+        <v>0.10712565309222954</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.12047604009048089</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="0"/>
-        <v>0.10712565309222954</v>
-      </c>
-      <c r="M22">
+        <v>0.44920916856973703</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="2"/>
-        <v>0.12047604009048089</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>0.44920916856973703</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
         <v>0.40074936865216831</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>43039</v>
       </c>
@@ -8738,29 +8822,29 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27816.857295277401</v>
+        <v>27680.94</v>
       </c>
       <c r="J23">
-        <v>64240.5710177656</v>
+        <v>64891.83</v>
       </c>
       <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0.21680321533467306</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.14660082029050284</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="0"/>
-        <v>0.21680321533467306</v>
-      </c>
-      <c r="M23">
+        <v>0.75433064063242483</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="2"/>
-        <v>0.14660082029050284</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="1"/>
-        <v>0.75433064063242483</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="3"/>
         <v>0.52841525407474743</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>43069</v>
       </c>
@@ -8786,29 +8870,29 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28845.1346703817</v>
+        <v>28759.56</v>
       </c>
       <c r="J24">
-        <v>74622.880975875494</v>
+        <v>72881.429999999993</v>
       </c>
       <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0.16133009264151599</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.16175298702280619</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="0"/>
-        <v>0.16133009264151599</v>
-      </c>
-      <c r="M24">
+        <v>0.78827981100344369</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.16175298702280619</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>0.78827981100344369</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
         <v>0.66393987340186855</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>43100</v>
       </c>
@@ -8834,29 +8918,29 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33222.475338615899</v>
+        <v>33165.07</v>
       </c>
       <c r="J25">
-        <v>83717.659827135707</v>
+        <v>82247.92</v>
       </c>
       <c r="L25">
+        <f t="shared" si="3"/>
+        <v>4.3143088991073775E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.14042546565575428</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="0"/>
-        <v>4.3143088991073775E-2</v>
-      </c>
-      <c r="M25">
+        <v>0.6957149517950878</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="2"/>
-        <v>0.14042546565575428</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>0.6957149517950878</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="3"/>
         <v>0.74610846781031881</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>43131</v>
       </c>
@@ -8882,29 +8966,29 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>31023.7332725206</v>
+        <v>31037.14</v>
       </c>
       <c r="J26">
-        <v>91486.411571689998</v>
+        <v>91294.6</v>
       </c>
       <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0.48185980979218024</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.22877766380825668</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="0"/>
-        <v>0.48185980979218024</v>
-      </c>
-      <c r="M26">
+        <v>1.2058504875406282</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="2"/>
-        <v>0.22877766380825668</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
-        <v>1.2058504875406282</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="3"/>
         <v>0.89661508344638652</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>43159</v>
       </c>
@@ -8930,29 +9014,29 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>32000.8172731835</v>
+        <v>31992.04</v>
       </c>
       <c r="J27">
-        <v>93057.658713979807</v>
+        <v>93904.35</v>
       </c>
       <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0.62177564487102588</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.38225951455142665</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="0"/>
-        <v>0.62177564487102588</v>
-      </c>
-      <c r="M27">
+        <v>0.83911763990563504</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="2"/>
-        <v>0.38225951455142665</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>0.83911763990563504</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="3"/>
         <v>0.91356102641378367</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>43190</v>
       </c>
@@ -8978,29 +9062,29 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>30606.704970308099</v>
+        <v>30608.87</v>
       </c>
       <c r="J28">
-        <v>96718.2181293959</v>
+        <v>95272.78</v>
       </c>
       <c r="L28">
+        <f t="shared" si="3"/>
+        <v>0.23788491703128867</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.44717345723149826</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="0"/>
-        <v>0.23788491703128867</v>
-      </c>
-      <c r="M28">
+        <v>0.5762233040759035</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="2"/>
-        <v>0.44717345723149826</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>0.5762233040759035</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="3"/>
         <v>0.87373047717405561</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>43220</v>
       </c>
@@ -9026,29 +9110,29 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>31440.824582269499</v>
+        <v>31493.22</v>
       </c>
       <c r="J29">
-        <v>97361.6525336833</v>
+        <v>96186.83</v>
       </c>
       <c r="L29">
+        <f t="shared" si="3"/>
+        <v>0.25314645308924488</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.37093567166385316</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="0"/>
-        <v>0.25314645308924488</v>
-      </c>
-      <c r="M29">
+        <v>0.65471236230110152</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="2"/>
-        <v>0.37093567166385316</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>0.65471236230110152</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="3"/>
         <v>0.69001776876087995</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>43251</v>
       </c>
@@ -9074,29 +9158,29 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>33986.777166239503</v>
+        <v>34142.959999999999</v>
       </c>
       <c r="J30">
-        <v>97293.998099459495</v>
+        <v>98862.74</v>
       </c>
       <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0.24476925043678355</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.2452668735191057</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="0"/>
-        <v>0.24476925043678355</v>
-      </c>
-      <c r="M30">
+        <v>0.60760912806046807</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="2"/>
-        <v>0.2452668735191057</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
-        <v>0.60760912806046807</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
         <v>0.61284826481249099</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>43281</v>
       </c>
@@ -9122,29 +9206,29 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>30848.212585105401</v>
+        <v>30977.15</v>
       </c>
       <c r="J31">
-        <v>96843.574502334304</v>
+        <v>97570.91</v>
       </c>
       <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0.17805306840017998</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.22532292397540279</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="0"/>
-        <v>0.17805306840017998</v>
-      </c>
-      <c r="M31">
+        <v>0.52218792525473789</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="2"/>
-        <v>0.22532292397540279</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
-        <v>0.52218792525473789</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="3"/>
         <v>0.59483647187210253</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>43312</v>
       </c>
@@ -9170,29 +9254,29 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>30659.794559236401</v>
+        <v>30804.78</v>
       </c>
       <c r="J32">
-        <v>89141.252962219005</v>
+        <v>90641.65</v>
       </c>
       <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0.25778109329023158</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.22686780404239837</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="0"/>
-        <v>0.25778109329023158</v>
-      </c>
-      <c r="M32">
+        <v>0.51705252676126467</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="2"/>
-        <v>0.22686780404239837</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>0.51705252676126467</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="3"/>
         <v>0.54894986002549018</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>43343</v>
       </c>
@@ -9218,29 +9302,29 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>29376.701886381601</v>
+        <v>29548.79</v>
       </c>
       <c r="J33">
-        <v>85592.752156366594</v>
+        <v>84607.39</v>
       </c>
       <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.21202256944444442</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.21595224371161867</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="0"/>
-        <v>0.21202256944444442</v>
-      </c>
-      <c r="M33">
+        <v>0.38985998261026</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="2"/>
-        <v>0.21595224371161867</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
-        <v>0.38985998261026</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="3"/>
         <v>0.47636681154208754</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>43373</v>
       </c>
@@ -9266,29 +9350,29 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>29547.466088125399</v>
+        <v>29304.66</v>
       </c>
       <c r="J34">
-        <v>84946.4874751303</v>
+        <v>86054.87</v>
       </c>
       <c r="L34">
+        <f t="shared" si="3"/>
+        <v>9.1907088827900107E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.18723691718752536</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="0"/>
-        <v>9.1907088827900107E-2</v>
-      </c>
-      <c r="M34">
+        <v>0.30438017975954246</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="2"/>
-        <v>0.18723691718752536</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>0.30438017975954246</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="3"/>
         <v>0.40376422971035569</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>43404</v>
       </c>
@@ -9314,29 +9398,29 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>29676.795289135702</v>
+        <v>29543.21</v>
       </c>
       <c r="J35">
-        <v>86016.8647804254</v>
+        <v>86432.81</v>
       </c>
       <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0.10823858222702154</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.1373894134997887</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="0"/>
-        <v>0.10823858222702154</v>
-      </c>
-      <c r="M35">
+        <v>0.30944817906478539</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="2"/>
-        <v>0.1373894134997887</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>0.30944817906478539</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="3"/>
         <v>0.33456278047819593</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>43434</v>
       </c>
@@ -9362,29 +9446,29 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>30302.978184463202</v>
+        <v>30194.84</v>
       </c>
       <c r="J36">
-        <v>91740.738695054795</v>
+        <v>90629.11</v>
       </c>
       <c r="L36">
+        <f t="shared" si="3"/>
+        <v>4.9895356243744082E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>8.3347009099555239E-2</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="0"/>
-        <v>4.9895356243744082E-2</v>
-      </c>
-      <c r="M36">
+        <v>0.17950985770423533</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="2"/>
-        <v>8.3347009099555239E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
-        <v>0.17950985770423533</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="3"/>
         <v>0.26444607217618771</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>43465</v>
       </c>
@@ -9410,29 +9494,29 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>30689.2453340184</v>
+        <v>30613.91</v>
       </c>
       <c r="J37">
-        <v>93359.467841147896</v>
+        <v>92308.41</v>
       </c>
       <c r="L37">
+        <f t="shared" si="3"/>
+        <v>-7.693504472967716E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>2.7066297913696153E-2</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="0"/>
-        <v>-7.693504472967716E-2</v>
-      </c>
-      <c r="M37">
+        <v>7.8896250765014164E-2</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="2"/>
-        <v>2.7066297913696153E-2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
-        <v>7.8896250765014164E-2</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="3"/>
         <v>0.18928476251134496</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>43496</v>
       </c>
@@ -9458,29 +9542,29 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>33694.821454939003</v>
+        <v>33707.800000000003</v>
       </c>
       <c r="J38">
-        <v>93946.384003479907</v>
+        <v>93681.5</v>
       </c>
       <c r="L38">
+        <f t="shared" si="3"/>
+        <v>8.6047064416448826E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>1.9669125310171915E-2</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="0"/>
-        <v>8.6047064416448826E-2</v>
-      </c>
-      <c r="M38">
+        <v>3.1118439517260787E-2</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
-        <v>1.9669125310171915E-2</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
-        <v>3.1118439517260787E-2</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="3"/>
         <v>9.6508182662170094E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>43524</v>
       </c>
@@ -9506,29 +9590,29 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>34061.443454146698</v>
+        <v>34073.160000000003</v>
       </c>
       <c r="J39">
-        <v>94923.162716400097</v>
+        <v>95478.34</v>
       </c>
       <c r="L39">
+        <f t="shared" si="3"/>
+        <v>6.5063806177177774E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>2.4725275287983146E-2</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="0"/>
-        <v>6.5063806177177774E-2</v>
-      </c>
-      <c r="M39">
+        <v>2.7717901585580407E-2</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="2"/>
-        <v>2.4725275287983146E-2</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
-        <v>2.7717901585580407E-2</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="3"/>
         <v>4.5910863955951786E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>43555</v>
       </c>
@@ -9554,29 +9638,29 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>29645.760648326101</v>
+        <v>29634.29</v>
       </c>
       <c r="J40">
-        <v>87533.1356062165</v>
+        <v>86633.1</v>
       </c>
       <c r="L40">
+        <f t="shared" si="3"/>
+        <v>-6.7624795758444711E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>2.7828691611727296E-2</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="0"/>
-        <v>-6.7624795758444711E-2</v>
-      </c>
-      <c r="M40">
+        <v>-0.13464768410492256</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="2"/>
-        <v>2.7828691611727296E-2</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
-        <v>-0.13464768410492256</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="3"/>
         <v>-2.5270447667360457E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>43585</v>
       </c>
@@ -9602,29 +9686,29 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>28450.5910263923</v>
+        <v>28512.400000000001</v>
       </c>
       <c r="J41">
-        <v>81290.412512000796</v>
+        <v>80205.61</v>
       </c>
       <c r="L41">
+        <f t="shared" si="3"/>
+        <v>-5.9901522809534646E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>-2.0820837463600528E-2</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="0"/>
-        <v>-5.9901522809534646E-2</v>
-      </c>
-      <c r="M41">
+        <v>-0.12487187344795159</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="2"/>
-        <v>-2.0820837463600528E-2</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="1"/>
-        <v>-0.12487187344795159</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="3"/>
         <v>-7.726721865576458E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>43616</v>
       </c>
@@ -9650,29 +9734,29 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>28253.425899912199</v>
+        <v>28357.73</v>
       </c>
       <c r="J42">
-        <v>71930.482463966604</v>
+        <v>73363.53</v>
       </c>
       <c r="L42">
+        <f t="shared" si="3"/>
+        <v>-0.1694567115127863</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>-9.8994343360255213E-2</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="0"/>
-        <v>-0.1694567115127863</v>
-      </c>
-      <c r="M42">
+        <v>-0.29178664627013406</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="2"/>
-        <v>-9.8994343360255213E-2</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="1"/>
-        <v>-0.29178664627013406</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="3"/>
         <v>-0.1837687346076694</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43646</v>
       </c>
@@ -9698,29 +9782,29 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>30144.336155577901</v>
+        <v>30254.98</v>
       </c>
       <c r="J43">
-        <v>79669.233401519901</v>
+        <v>80413.789999999994</v>
       </c>
       <c r="L43">
+        <f t="shared" si="3"/>
+        <v>-5.9415561879641809E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>-9.6257932067320917E-2</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="0"/>
-        <v>-5.9415561879641809E-2</v>
-      </c>
-      <c r="M43">
+        <v>-0.22560071518904534</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="2"/>
-        <v>-9.6257932067320917E-2</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="1"/>
-        <v>-0.22560071518904534</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="3"/>
         <v>-0.21408641163571032</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43677</v>
       </c>
@@ -9746,29 +9830,29 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>23539.672302802199</v>
+        <v>23678.71</v>
       </c>
       <c r="J44">
-        <v>73094.758577522705</v>
+        <v>74135.850000000006</v>
       </c>
       <c r="L44">
+        <f t="shared" si="3"/>
+        <v>-0.20181884081847834</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>-0.14356370473696881</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="0"/>
-        <v>-0.20181884081847834</v>
-      </c>
-      <c r="M44">
+        <v>-0.13614484192101517</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="2"/>
-        <v>-0.14356370473696881</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="1"/>
-        <v>-0.13614484192101517</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="3"/>
         <v>-0.21784406779339818</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43708</v>
       </c>
@@ -9794,29 +9878,29 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>25566.275924175301</v>
+        <v>25726.2</v>
       </c>
       <c r="J45">
-        <v>77786.018695616105</v>
+        <v>76778.7</v>
       </c>
       <c r="L45">
+        <f t="shared" si="3"/>
+        <v>-0.16153387048642198</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>-0.14092275772818072</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="0"/>
-        <v>-0.16153387048642198</v>
-      </c>
-      <c r="M45">
+        <v>-0.11490421951850893</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="2"/>
-        <v>-0.14092275772818072</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="1"/>
-        <v>-0.11490421951850893</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="3"/>
         <v>-0.15888325887618981</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>43738</v>
       </c>
@@ -9842,29 +9926,29 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>25639.9490947503</v>
+        <v>25458.99</v>
       </c>
       <c r="J46">
-        <v>72288.754955020398</v>
+        <v>73046.84</v>
       </c>
       <c r="L46">
+        <f t="shared" si="3"/>
+        <v>-9.7872731731240781E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>-0.15374181434538037</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="0"/>
-        <v>-9.7872731731240781E-2</v>
-      </c>
-      <c r="M46">
+        <v>-8.834748369632095E-2</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="2"/>
-        <v>-0.15374181434538037</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="1"/>
-        <v>-8.834748369632095E-2</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="3"/>
         <v>-0.11313218171194835</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>43769</v>
       </c>
@@ -9890,29 +9974,29 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>26578.001356609799</v>
+        <v>26457.13</v>
       </c>
       <c r="J47">
-        <v>72229.707393187302</v>
+        <v>72484.78</v>
       </c>
       <c r="L47">
+        <f t="shared" si="3"/>
+        <v>-0.10445921935003155</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>-0.12128860718923144</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="0"/>
-        <v>-0.10445921935003155</v>
-      </c>
-      <c r="M47">
+        <v>-0.12698860431005299</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="2"/>
-        <v>-0.12128860718923144</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="1"/>
-        <v>-0.12698860431005299</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="3"/>
         <v>-0.11008010250829429</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43799</v>
       </c>
@@ -9938,29 +10022,29 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>28309.786515341799</v>
+        <v>28175.59</v>
       </c>
       <c r="J48">
-        <v>83420.830865114607</v>
+        <v>82837.8</v>
       </c>
       <c r="L48">
+        <f t="shared" si="3"/>
+        <v>-0.10137516611775577</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>-0.10123570573300937</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="0"/>
-        <v>-0.10137516611775577</v>
-      </c>
-      <c r="M48">
+        <v>-0.12562289402496318</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="2"/>
-        <v>-0.10123570573300937</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="1"/>
-        <v>-0.12562289402496318</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="3"/>
         <v>-0.11365299401044571</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>43830</v>
       </c>
@@ -9986,29 +10070,29 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>29800.592721073899</v>
+        <v>29718.78</v>
       </c>
       <c r="J49">
-        <v>90167.848889668399</v>
+        <v>89405.91</v>
       </c>
       <c r="L49">
+        <f t="shared" si="3"/>
+        <v>8.0060677566156091E-3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>-6.5942772570390565E-2</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="0"/>
-        <v>8.0060677566156091E-3</v>
-      </c>
-      <c r="M49">
+        <v>-5.4012726286193358E-3</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="2"/>
-        <v>-6.5942772570390565E-2</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="1"/>
-        <v>-5.4012726286193358E-3</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="3"/>
         <v>-8.6004256987878502E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>43861</v>
       </c>
@@ -10034,29 +10118,29 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>32862.652015868</v>
+        <v>32855.31</v>
       </c>
       <c r="J50">
-        <v>97965.358933401396</v>
+        <v>97575.28</v>
       </c>
       <c r="L50">
+        <f t="shared" si="3"/>
+        <v>-2.5300941124972609E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>-3.9556679828704255E-2</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="0"/>
-        <v>-2.5300941124972609E-2</v>
-      </c>
-      <c r="M50">
+        <v>4.3822938994930505E-2</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="2"/>
-        <v>-3.9556679828704255E-2</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="1"/>
-        <v>4.3822938994930505E-2</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="3"/>
         <v>-2.9067075886217337E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>43890</v>
       </c>
@@ -10082,29 +10166,29 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>33987.154176394797</v>
+        <v>33980.800000000003</v>
       </c>
       <c r="J51">
-        <v>105447.807720857</v>
+        <v>105743.11</v>
       </c>
       <c r="L51">
+        <f t="shared" si="3"/>
+        <v>5.4872542890880283E-3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>-3.9358730264229909E-3</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="0"/>
-        <v>5.4872542890880283E-3</v>
-      </c>
-      <c r="M51">
+        <v>0.11717171717171726</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="2"/>
-        <v>-3.9358730264229909E-3</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="1"/>
-        <v>0.11717171717171726</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="3"/>
         <v>5.1864461179342812E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>43921</v>
       </c>
@@ -10130,29 +10214,29 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>33214.758966325302</v>
+        <v>33225.699999999997</v>
       </c>
       <c r="J52">
-        <v>107277.36246059601</v>
+        <v>106797.69</v>
       </c>
       <c r="L52">
+        <f t="shared" si="3"/>
+        <v>0.16422874718357705</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>4.8138353449230821E-2</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="0"/>
-        <v>0.16422874718357705</v>
-      </c>
-      <c r="M52">
+        <v>0.31290381408920376</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="2"/>
-        <v>4.8138353449230821E-2</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="1"/>
-        <v>0.31290381408920376</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="3"/>
         <v>0.1579661567519505</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>43951</v>
       </c>
@@ -10178,29 +10262,29 @@
         <v>7.2150813678786294E-3</v>
       </c>
       <c r="I53">
-        <v>19535.267151202501</v>
+        <v>19575.009999999998</v>
       </c>
       <c r="J53">
-        <v>75853.868969381903</v>
+        <v>74759.58</v>
       </c>
       <c r="L53">
+        <f t="shared" si="3"/>
+        <v>-0.31345820326049256</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>-4.7914067262609161E-2</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="0"/>
-        <v>-0.31345820326049256</v>
-      </c>
-      <c r="M53">
+        <v>-6.0906105100463681E-2</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="2"/>
-        <v>-4.7914067262609161E-2</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="1"/>
-        <v>-6.0906105100463681E-2</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="3"/>
         <v>0.12305647538681912</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>43982</v>
       </c>
@@ -10226,29 +10310,29 @@
         <v>1.553082064620475E-2</v>
       </c>
       <c r="I54">
-        <v>37007.565545549704</v>
+        <v>37059.040000000001</v>
       </c>
       <c r="J54">
-        <v>80440.988086365003</v>
+        <v>81915.94</v>
       </c>
       <c r="L54">
+        <f t="shared" si="3"/>
+        <v>0.21198631548575908</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>2.0918953136281188E-2</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="0"/>
-        <v>0.21198631548575908</v>
-      </c>
-      <c r="M54">
+        <v>1.4405285643949606E-2</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="2"/>
-        <v>2.0918953136281188E-2</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="1"/>
-        <v>1.4405285643949606E-2</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="3"/>
         <v>8.8800998210896556E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>44012</v>
       </c>
@@ -10274,29 +10358,29 @@
         <v>1.2108213790976031E-2</v>
       </c>
       <c r="I55">
-        <v>41868.450765997703</v>
+        <v>42073.93</v>
       </c>
       <c r="J55">
-        <v>87476.971217776401</v>
+        <v>88282.49</v>
       </c>
       <c r="L55">
+        <f t="shared" si="3"/>
+        <v>0.4994465353110471</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>0.13265821584543788</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="0"/>
-        <v>0.4994465353110471</v>
-      </c>
-      <c r="M55">
+        <v>0.21956610494009654</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="2"/>
-        <v>0.13265821584543788</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="1"/>
-        <v>0.21956610494009654</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="3"/>
         <v>5.7688428494527488E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>44043</v>
       </c>
@@ -10322,29 +10406,29 @@
         <v>1.082674441785161E-2</v>
       </c>
       <c r="I56">
-        <v>46860.330569601203</v>
+        <v>47187.47</v>
       </c>
       <c r="J56">
-        <v>101385.52332355799</v>
+        <v>102096.79</v>
       </c>
       <c r="L56">
+        <f t="shared" si="3"/>
+        <v>0.99285832232496696</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>0.56809705770725771</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="0"/>
-        <v>0.99285832232496696</v>
-      </c>
-      <c r="M56">
+        <v>0.36265434053061485</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="2"/>
-        <v>0.56809705770725771</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="1"/>
-        <v>0.36265434053061485</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="3"/>
         <v>0.19887524370488699</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>44074</v>
       </c>
@@ -10370,29 +10454,29 @@
         <v>9.9408026790385809E-3</v>
       </c>
       <c r="I57">
-        <v>48254.503844629398</v>
+        <v>48596.26</v>
       </c>
       <c r="J57">
-        <v>111462.704238135</v>
+        <v>110346.62</v>
       </c>
       <c r="L57">
+        <f t="shared" si="3"/>
+        <v>0.81919777912232616</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>0.77050087891944674</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="0"/>
-        <v>0.81919777912232616</v>
-      </c>
-      <c r="M57">
+        <v>0.37984864548678399</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="2"/>
-        <v>0.77050087891944674</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="1"/>
-        <v>0.37984864548678399</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="3"/>
         <v>0.32068969698583177</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>44104</v>
       </c>
@@ -10418,29 +10502,29 @@
         <v>8.8616020103216078E-3</v>
       </c>
       <c r="I58">
-        <v>46615.038328180097</v>
+        <v>46362.31</v>
       </c>
       <c r="J58">
-        <v>128877.950816707</v>
+        <v>129378.99</v>
       </c>
       <c r="L58">
+        <f t="shared" si="3"/>
+        <v>0.89099928646665072</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>0.90101846263798124</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="0"/>
-        <v>0.89099928646665072</v>
-      </c>
-      <c r="M58">
+        <v>0.75951852169965273</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="2"/>
-        <v>0.90101846263798124</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="1"/>
-        <v>0.75951852169965273</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="3"/>
         <v>0.50067383590568382</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>44135</v>
       </c>
@@ -10466,29 +10550,29 @@
         <v>8.945793904322312E-3</v>
       </c>
       <c r="I59">
-        <v>51414.391687110197</v>
+        <v>51159.360000000001</v>
       </c>
       <c r="J59">
-        <v>136645.84728937899</v>
+        <v>136796.34</v>
       </c>
       <c r="L59">
+        <f t="shared" si="3"/>
+        <v>0.86220359051489637</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>0.85746688536795779</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="0"/>
-        <v>0.86220359051489637</v>
-      </c>
-      <c r="M59">
+        <v>0.66294022617124404</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="2"/>
-        <v>0.85746688536795779</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="1"/>
-        <v>0.66294022617124404</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="3"/>
         <v>0.60076913111922692</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>44165</v>
       </c>
@@ -10514,29 +10598,29 @@
         <v>8.8117342730610337E-3</v>
       </c>
       <c r="I60">
-        <v>42667.158898146197</v>
+        <v>42455.07</v>
       </c>
       <c r="J60">
-        <v>134185.78933838799</v>
+        <v>134068.99</v>
       </c>
       <c r="L60">
+        <f t="shared" si="3"/>
+        <v>0.50679954991158982</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>0.75333414229771234</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="0"/>
-        <v>0.50679954991158982</v>
-      </c>
-      <c r="M60">
+        <v>0.54007815892314381</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="2"/>
-        <v>0.75333414229771234</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="1"/>
-        <v>0.54007815892314381</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="3"/>
         <v>0.65417896893134686</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>44196</v>
       </c>
@@ -10562,29 +10646,29 @@
         <v>9.3541044967935597E-3</v>
       </c>
       <c r="I61">
-        <v>40052.171995012199</v>
+        <v>39939.410000000003</v>
       </c>
       <c r="J61">
-        <v>128332.059646155</v>
+        <v>127787.3</v>
       </c>
       <c r="L61">
+        <f t="shared" si="3"/>
+        <v>0.39547975364378685</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>0.58816096469009105</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="0"/>
-        <v>0.39547975364378685</v>
-      </c>
-      <c r="M61">
+        <v>0.33708598870897077</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="2"/>
-        <v>0.58816096469009105</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="1"/>
-        <v>0.33708598870897077</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="3"/>
         <v>0.51336812460111958</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>44227</v>
       </c>
@@ -10610,29 +10694,29 @@
         <v>8.7046213556422405E-3</v>
       </c>
       <c r="I62">
-        <v>41158.776491149503</v>
+        <v>41066.46</v>
       </c>
       <c r="J62">
-        <v>114795.970517182</v>
+        <v>114269.41</v>
       </c>
       <c r="L62">
+        <f t="shared" si="3"/>
+        <v>0.15920420352988729</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>0.35382783569508797</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="0"/>
-        <v>0.15920420352988729</v>
-      </c>
-      <c r="M62">
+        <v>0.13155578734639328</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="2"/>
-        <v>0.35382783569508797</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="1"/>
-        <v>0.13155578734639328</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="3"/>
         <v>0.33623997832616931</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>44255</v>
       </c>
@@ -10658,29 +10742,29 @@
         <v>7.7722859658240079E-3</v>
       </c>
       <c r="I63">
-        <v>43253.739904208698</v>
+        <v>43254.92</v>
       </c>
       <c r="J63">
-        <v>127446.714750447</v>
+        <v>127486.62</v>
       </c>
       <c r="L63">
+        <f t="shared" si="3"/>
+        <v>0.26253799392097266</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>0.27240731703154891</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="0"/>
-        <v>0.26253799392097266</v>
-      </c>
-      <c r="M63">
+        <v>0.25190910033286884</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="2"/>
-        <v>0.27240731703154891</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="1"/>
-        <v>0.25190910033286884</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="3"/>
         <v>0.2401836254627443</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>44286</v>
       </c>
@@ -10706,29 +10790,29 @@
         <v>7.1159812432429331E-3</v>
       </c>
       <c r="I64">
-        <v>41714.556812413197</v>
+        <v>41767.660000000003</v>
       </c>
       <c r="J64">
-        <v>138189.173071745</v>
+        <v>138080.60999999999</v>
       </c>
       <c r="L64">
+        <f t="shared" si="3"/>
+        <v>0.30534820139464869</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>0.24236346628183622</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="0"/>
-        <v>0.30534820139464869</v>
-      </c>
-      <c r="M64">
+        <v>0.34854994096577996</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="2"/>
-        <v>0.24236346628183622</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="1"/>
-        <v>0.34854994096577996</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="3"/>
         <v>0.2440049428816807</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>44316</v>
       </c>
@@ -10754,29 +10838,29 @@
         <v>9.4776598255838021E-3</v>
       </c>
       <c r="I65">
-        <v>45583.569654576</v>
+        <v>45675.41</v>
       </c>
       <c r="J65">
-        <v>143134.098175116</v>
+        <v>141927.29999999999</v>
       </c>
       <c r="L65">
+        <f t="shared" si="3"/>
+        <v>1.333350174304047</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>0.63374545653988945</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="0"/>
-        <v>1.333350174304047</v>
-      </c>
-      <c r="M65">
+        <v>0.87153474258087749</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="2"/>
-        <v>0.63374545653988945</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="1"/>
-        <v>0.87153474258087749</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="3"/>
         <v>0.49066459462650874</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>44347</v>
       </c>
@@ -10802,29 +10886,29 @@
         <v>1.308168883711627E-2</v>
       </c>
       <c r="I66">
-        <v>46382.663892781697</v>
+        <v>46404.09</v>
       </c>
       <c r="J66">
-        <v>127842.51507051699</v>
+        <v>129507.76</v>
       </c>
       <c r="L66">
+        <f t="shared" si="3"/>
+        <v>0.25214256563732818</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>0.63028031377867466</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="0"/>
-        <v>0.25214256563732818</v>
-      </c>
-      <c r="M66">
+        <v>0.7516204790981682</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="2"/>
-        <v>0.63028031377867466</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="1"/>
-        <v>0.7516204790981682</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="3"/>
         <v>0.65723505421494188</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>44377</v>
       </c>
@@ -10850,29 +10934,29 @@
         <v>1.418492508512881E-2</v>
       </c>
       <c r="I67">
-        <v>54526.590146697701</v>
+        <v>54762.67</v>
       </c>
       <c r="J67">
-        <v>126254.713730506</v>
+        <v>127235.92</v>
       </c>
       <c r="L67">
+        <f t="shared" si="3"/>
+        <v>0.30156503764949072</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="1"/>
+        <v>0.62901925919695534</v>
+      </c>
+      <c r="N67">
         <f t="shared" si="0"/>
-        <v>0.30156503764949072</v>
-      </c>
-      <c r="M67">
+        <v>0.45590866588938783</v>
+      </c>
+      <c r="O67">
         <f t="shared" si="2"/>
-        <v>0.62901925919695534</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="1"/>
-        <v>0.45590866588938783</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="3"/>
         <v>0.69302129585614447</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>44408</v>
       </c>
@@ -10898,29 +10982,29 @@
         <v>6.8074489008346584E-3</v>
       </c>
       <c r="I68">
-        <v>28457.2613224659</v>
+        <v>28652</v>
       </c>
       <c r="J68">
-        <v>120578.645128419</v>
+        <v>121043.04</v>
       </c>
       <c r="L68">
+        <f t="shared" si="3"/>
+        <v>-0.41524598653547384</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>4.6153872250448348E-2</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="0"/>
-        <v>-0.41524598653547384</v>
-      </c>
-      <c r="M68">
+        <v>0.14747867140015991</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="2"/>
-        <v>4.6153872250448348E-2</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="1"/>
-        <v>0.14747867140015991</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="3"/>
         <v>0.45166927212923863</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>44439</v>
       </c>
@@ -10946,29 +11030,29 @@
         <v>7.1271420667416152E-3</v>
       </c>
       <c r="I69">
-        <v>29570.422814981201</v>
+        <v>29822.52</v>
       </c>
       <c r="J69">
-        <v>111959.85639891701</v>
+        <v>110596.79</v>
       </c>
       <c r="L69">
+        <f t="shared" si="3"/>
+        <v>-0.36275775717024694</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>-0.15881290201874335</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="0"/>
-        <v>-0.36275775717024694</v>
-      </c>
-      <c r="M69">
+        <v>4.6383876921989975E-2</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="2"/>
-        <v>-0.15881290201874335</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="1"/>
-        <v>4.6383876921989975E-2</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="3"/>
         <v>0.21659040473717925</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>44469</v>
       </c>
@@ -10994,29 +11078,29 @@
         <v>9.4043768869424352E-3</v>
       </c>
       <c r="I70">
-        <v>31198.516361439099</v>
+        <v>31046.34</v>
       </c>
       <c r="J70">
-        <v>105431.953496659</v>
+        <v>105708.7</v>
       </c>
       <c r="L70">
+        <f t="shared" si="3"/>
+        <v>-0.33034462931685049</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>-0.36944945767419046</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="0"/>
-        <v>-0.33034462931685049</v>
-      </c>
-      <c r="M70">
+        <v>-0.15800668066025569</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="2"/>
-        <v>-0.36944945767419046</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="1"/>
-        <v>-0.15800668066025569</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="3"/>
         <v>1.1951955887298063E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>44500</v>
       </c>
@@ -11042,29 +11126,29 @@
         <v>1.26981481856497E-2</v>
       </c>
       <c r="I71">
-        <v>36008.612957472302</v>
+        <v>35790.18</v>
       </c>
       <c r="J71">
-        <v>108965.587602236</v>
+        <v>108990.81</v>
       </c>
       <c r="L71">
+        <f t="shared" si="3"/>
+        <v>-0.32628196315644764</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>-0.33979478321451501</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="0"/>
-        <v>-0.32628196315644764</v>
-      </c>
-      <c r="M71">
+        <v>-0.2044377088676459</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="2"/>
-        <v>-0.33979478321451501</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="1"/>
-        <v>-0.2044377088676459</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="3"/>
         <v>-0.10535350420197054</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>44530</v>
       </c>
@@ -11090,29 +11174,29 @@
         <v>1.506779678485062E-2</v>
       </c>
       <c r="I72">
-        <v>37968.2907728996</v>
+        <v>37797.660000000003</v>
       </c>
       <c r="J72">
-        <v>104751.64028763</v>
+        <v>105055.63</v>
       </c>
       <c r="L72">
+        <f t="shared" si="3"/>
+        <v>-7.5529667797478051E-2</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>-0.24405208675692538</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="0"/>
-        <v>-7.5529667797478051E-2</v>
-      </c>
-      <c r="M72">
+        <v>-0.19298381639787976</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="2"/>
-        <v>-0.24405208675692538</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="1"/>
-        <v>-0.19298381639787976</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="3"/>
         <v>-0.18514273530859379</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>44561</v>
       </c>
@@ -11138,29 +11222,29 @@
         <v>1.7650545971450111E-2</v>
       </c>
       <c r="I73">
-        <v>43721.475329404799</v>
+        <v>43584.66</v>
       </c>
       <c r="J73">
-        <v>105903.792769594</v>
+        <v>105528.08</v>
       </c>
       <c r="L73">
+        <f t="shared" si="3"/>
+        <v>9.1264927906698157E-2</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>-0.10351556768240917</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="0"/>
-        <v>9.1264927906698157E-2</v>
-      </c>
-      <c r="M73">
+        <v>-0.14657954278507934</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="2"/>
-        <v>-0.10351556768240917</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="1"/>
-        <v>-0.14657954278507934</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="3"/>
         <v>-0.18133368935020167</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>44592</v>
       </c>
@@ -11186,29 +11270,29 @@
         <v>2.050596741205955E-2</v>
       </c>
       <c r="I74">
-        <v>50201.230851132801</v>
+        <v>50067</v>
       </c>
       <c r="J74">
-        <v>109670.890114682</v>
+        <v>108956.55</v>
       </c>
       <c r="L74">
+        <f t="shared" si="3"/>
+        <v>0.21916163024949631</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>7.8298963452905476E-2</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="0"/>
-        <v>0.21916163024949631</v>
-      </c>
-      <c r="M74">
+        <v>-8.3177300878582772E-2</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="2"/>
-        <v>7.8298963452905476E-2</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="1"/>
-        <v>-8.3177300878582772E-2</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="3"/>
         <v>-0.14091355335384728</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>44620</v>
       </c>
@@ -11234,29 +11318,29 @@
         <v>2.350832046880524E-2</v>
       </c>
       <c r="I75">
-        <v>51347.8327851914</v>
+        <v>51353.65</v>
       </c>
       <c r="J75">
-        <v>112282.889816825</v>
+        <v>112073.9</v>
       </c>
       <c r="L75">
+        <f t="shared" si="3"/>
+        <v>0.18723497387355348</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>0.16588717734324931</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="0"/>
-        <v>0.18723497387355348</v>
-      </c>
-      <c r="M75">
+        <v>-0.14910020976704819</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="2"/>
-        <v>0.16588717734324931</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="1"/>
-        <v>-0.14910020976704819</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="3"/>
         <v>-0.12628568447690344</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>44651</v>
       </c>
@@ -11282,29 +11366,29 @@
         <v>3.2828468382591729E-2</v>
       </c>
       <c r="I76">
-        <v>61145.408421345099</v>
+        <v>61272.02</v>
       </c>
       <c r="J76">
-        <v>103024.126996202</v>
+        <v>103269.63</v>
       </c>
       <c r="L76">
+        <f t="shared" si="3"/>
+        <v>0.46699456381050997</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>0.29113038931118657</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="0"/>
-        <v>0.46699456381050997</v>
-      </c>
-      <c r="M76">
+        <v>-0.25880855509531409</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="2"/>
-        <v>0.29113038931118657</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="1"/>
-        <v>-0.25880855509531409</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="3"/>
         <v>-0.16369535524698167</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>44681</v>
       </c>
@@ -11330,29 +11414,29 @@
         <v>3.7123761132366311E-2</v>
       </c>
       <c r="I77">
-        <v>20866.4034829997</v>
+        <v>20901.400000000001</v>
       </c>
       <c r="J77">
-        <v>30958.920685873101</v>
+        <v>29502.68</v>
       </c>
       <c r="L77">
+        <f t="shared" si="3"/>
+        <v>-0.55930625324787808</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>3.1641094812061787E-2</v>
+      </c>
+      <c r="N77">
         <f t="shared" si="0"/>
-        <v>-0.55930625324787808</v>
-      </c>
-      <c r="M77">
+        <v>-0.79880181102416303</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="2"/>
-        <v>3.1641094812061787E-2</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="1"/>
-        <v>-0.79880181102416303</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="3"/>
         <v>-0.40223685862884179</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>44712</v>
       </c>
@@ -11378,29 +11462,29 @@
         <v>5.8092047044719639E-2</v>
       </c>
       <c r="I78">
-        <v>18429.538632658499</v>
+        <v>18443.46</v>
       </c>
       <c r="J78">
-        <v>33243.2208430881</v>
+        <v>35251.24</v>
       </c>
       <c r="L78">
+        <f t="shared" si="3"/>
+        <v>-0.58729425824325054</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>-0.22653531589353956</v>
+      </c>
+      <c r="N78">
         <f t="shared" si="0"/>
-        <v>-0.58729425824325054</v>
-      </c>
-      <c r="M78">
+        <v>-0.80669669991776605</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="2"/>
-        <v>-0.22653531589353956</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="1"/>
-        <v>-0.80669669991776605</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="3"/>
         <v>-0.62143568867908106</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>44742</v>
       </c>
@@ -11426,17 +11510,17 @@
         <v>4.8846534475089798E-2</v>
       </c>
       <c r="I79">
-        <v>22668.0767182731</v>
+        <v>22753.119999999999</v>
       </c>
       <c r="J79">
-        <v>43162.344029924403</v>
+        <v>44415.199999999997</v>
       </c>
       <c r="L79">
         <f t="shared" ref="L79:L93" si="4">C79/C67 - 1</f>
         <v>-0.58451969069631149</v>
       </c>
       <c r="M79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.57704006739581337</v>
       </c>
       <c r="N79">
@@ -11444,11 +11528,11 @@
         <v>-0.65317433258537438</v>
       </c>
       <c r="O79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.75289094784243449</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>44773</v>
       </c>
@@ -11474,17 +11558,17 @@
         <v>4.6403914403294277E-2</v>
       </c>
       <c r="I80">
-        <v>27925.270300335698</v>
+        <v>28107.56</v>
       </c>
       <c r="J80">
-        <v>65759.256762574194</v>
+        <v>66017.679999999993</v>
       </c>
       <c r="L80">
         <f t="shared" si="4"/>
         <v>-5.5262318891919682E-2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.40902542261049391</v>
       </c>
       <c r="N80">
@@ -11492,11 +11576,11 @@
         <v>-0.47198127495525266</v>
       </c>
       <c r="O80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.6439507691527977</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>44804</v>
       </c>
@@ -11522,10 +11606,10 @@
         <v>4.4392491167210918E-2</v>
       </c>
       <c r="I81">
-        <v>28517.014110155302</v>
+        <v>28801.81</v>
       </c>
       <c r="J81">
-        <v>78075.386220856395</v>
+        <v>76336.5</v>
       </c>
       <c r="L81">
         <f t="shared" si="4"/>
@@ -11544,7 +11628,7 @@
         <v>-0.45663457020400183</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>44834</v>
       </c>
@@ -11570,10 +11654,10 @@
         <v>4.5652243009095282E-2</v>
       </c>
       <c r="I82">
-        <v>30371.913974915999</v>
+        <v>30242.81</v>
       </c>
       <c r="J82">
-        <v>84249.985960264094</v>
+        <v>84337.22</v>
       </c>
       <c r="L82">
         <f t="shared" si="4"/>
@@ -11592,7 +11676,7 @@
         <v>-0.29459924364911522</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>44865</v>
       </c>
@@ -11618,10 +11702,10 @@
         <v>4.4376757895005309E-2</v>
       </c>
       <c r="I83">
-        <v>25242.913455858001</v>
+        <v>25078.36</v>
       </c>
       <c r="J83">
-        <v>86388.677894653098</v>
+        <v>86279.46</v>
       </c>
       <c r="L83">
         <f t="shared" si="4"/>
@@ -11640,7 +11724,7 @@
         <v>-0.19900115008156197</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>44895</v>
       </c>
@@ -11666,10 +11750,10 @@
         <v>4.8539879109245343E-2</v>
       </c>
       <c r="I84">
-        <v>30398.8813362867</v>
+        <v>30259.72</v>
       </c>
       <c r="J84">
-        <v>85965.472134729702</v>
+        <v>86741.56</v>
       </c>
       <c r="L84">
         <f t="shared" si="4"/>
@@ -11688,7 +11772,7 @@
         <v>-0.17610617086900068</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>44926</v>
       </c>
@@ -11714,10 +11798,10 @@
         <v>4.8068820684467772E-2</v>
       </c>
       <c r="I85">
-        <v>47697.249428887197</v>
+        <v>47501.48</v>
       </c>
       <c r="J85">
-        <v>91670.693351923503</v>
+        <v>91448.37</v>
       </c>
       <c r="L85">
         <f t="shared" si="4"/>
@@ -11736,7 +11820,7 @@
         <v>-0.16618482974855109</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>44957</v>
       </c>
@@ -11762,10 +11846,10 @@
         <v>3.8236790518899583E-2</v>
       </c>
       <c r="I86">
-        <v>30903.564123992099</v>
+        <v>30823.21</v>
       </c>
       <c r="J86">
-        <v>99754.458489427605</v>
+        <v>98786.19</v>
       </c>
       <c r="L86">
         <f t="shared" si="4"/>
@@ -11784,7 +11868,7 @@
         <v>-0.13800124574546779</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>44985</v>
       </c>
@@ -11810,10 +11894,10 @@
         <v>3.6138547548794982E-2</v>
       </c>
       <c r="I87">
-        <v>38202.011247818402</v>
+        <v>38204.32</v>
       </c>
       <c r="J87">
-        <v>103238.820175781</v>
+        <v>102766.68</v>
       </c>
       <c r="L87">
         <f t="shared" si="4"/>
@@ -11832,7 +11916,7 @@
         <v>-0.11501622488356915</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45016</v>
       </c>
@@ -11858,10 +11942,10 @@
         <v>3.1843167138860852E-2</v>
       </c>
       <c r="I88">
-        <v>44440.005471445198</v>
+        <v>44549.36</v>
       </c>
       <c r="J88">
-        <v>110607.791398211</v>
+        <v>111252.24</v>
       </c>
       <c r="L88">
         <f t="shared" si="4"/>
@@ -11880,7 +11964,7 @@
         <v>-4.2202129575853599E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45046</v>
       </c>
@@ -11906,10 +11990,10 @@
         <v>2.7150337762047529E-2</v>
       </c>
       <c r="I89">
-        <v>44305.323118061402</v>
+        <v>44353.23</v>
       </c>
       <c r="J89">
-        <v>117112.821099842</v>
+        <v>115286.89</v>
       </c>
       <c r="L89">
         <f t="shared" si="4"/>
@@ -11928,7 +12012,7 @@
         <v>0.93270120380410548</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45077</v>
       </c>
@@ -11954,10 +12038,10 @@
         <v>2.5395660654278829E-2</v>
       </c>
       <c r="I90">
-        <v>50684.594862744998</v>
+        <v>50756.81</v>
       </c>
       <c r="J90">
-        <v>120892.814172</v>
+        <v>123475.44</v>
       </c>
       <c r="L90">
         <f t="shared" si="4"/>
@@ -11976,7 +12060,7 @@
         <v>2.4020948323406022</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45107</v>
       </c>
@@ -12002,10 +12086,10 @@
         <v>2.4746248670718621E-2</v>
       </c>
       <c r="I91">
-        <v>46583.624964400202</v>
+        <v>46731.71</v>
       </c>
       <c r="J91">
-        <v>120973.734030263</v>
+        <v>122643.16</v>
       </c>
       <c r="L91">
         <f t="shared" si="4"/>
@@ -12024,7 +12108,7 @@
         <v>2.9783286847230221</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45138</v>
       </c>
@@ -12050,10 +12134,10 @@
         <v>2.4311718222558419E-2</v>
       </c>
       <c r="I92">
-        <v>53573.913229396603</v>
+        <v>53911.64</v>
       </c>
       <c r="J92">
-        <v>120214.44905562</v>
+        <v>120270.65</v>
       </c>
       <c r="L92">
         <f t="shared" si="4"/>
@@ -12072,7 +12156,7 @@
         <v>2.3151873975789949</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45169</v>
       </c>
@@ -12098,10 +12182,10 @@
         <v>2.640048147528291E-2</v>
       </c>
       <c r="I93">
-        <v>66187.476429577902</v>
+        <v>66867.070000000007</v>
       </c>
       <c r="J93">
-        <v>128691.372377835</v>
+        <v>126386.29</v>
       </c>
       <c r="L93">
         <f t="shared" si="4"/>
@@ -12118,6 +12202,54 @@
       <c r="O93">
         <f>AVERAGE(N91:N93)</f>
         <v>1.0712643588645783</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B94">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="C94">
+        <v>93022</v>
+      </c>
+      <c r="D94">
+        <v>145320</v>
+      </c>
+      <c r="E94">
+        <v>0.100820447910985</v>
+      </c>
+      <c r="F94">
+        <v>4.2520447910985006E-2</v>
+      </c>
+      <c r="G94">
+        <v>1.266222101290802E-2</v>
+      </c>
+      <c r="H94">
+        <v>2.9858226898076986E-2</v>
+      </c>
+      <c r="I94">
+        <v>80462.880000000005</v>
+      </c>
+      <c r="J94">
+        <v>132437.89000000001</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ref="L94" si="8">C94/C82 - 1</f>
+        <v>1.5622366065280264</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ref="M94" si="9">AVERAGE(L92:L94)</f>
+        <v>1.26729914441205</v>
+      </c>
+      <c r="N94">
+        <f t="shared" ref="N94" si="10">D94/D82 - 1</f>
+        <v>0.44497807475464612</v>
+      </c>
+      <c r="O94">
+        <f>AVERAGE(N92:N94)</f>
+        <v>0.61631054594577972</v>
       </c>
     </row>
   </sheetData>

--- a/wedge_research/data_sa.xlsx
+++ b/wedge_research/data_sa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1F07A-B468-4466-A306-8D85264760F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1064C486-7C66-4207-90E4-6B675700A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="22280" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5750" yWindow="580" windowWidth="15750" windowHeight="18730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="3" r:id="rId1"/>
@@ -166,7 +166,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +176,9 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Гиперссылка 2" xfId="6" xr:uid="{85685412-98D1-42C0-A3BF-21E1FFE51287}"/>
@@ -2648,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15864C2-A5E3-D44F-9C2D-FF5A277DF308}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F93" sqref="F93:H94"/>
     </sheetView>
   </sheetViews>
@@ -5696,8 +5699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509032C8-CDF2-3649-A1CA-14CF8B7B282E}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7919,8 +7922,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
-        <v>45170</v>
+      <c r="A80" s="7">
+        <v>45199</v>
       </c>
       <c r="B80">
         <f>Sheet1!M94</f>
@@ -7955,13 +7958,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93:O94"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -8412,7 +8415,7 @@
         <v>63966.84</v>
       </c>
       <c r="L14">
-        <f>C14/C2 - 1</f>
+        <f t="shared" ref="L14:L19" si="0">C14/C2 - 1</f>
         <v>-8.80179890780598E-2</v>
       </c>
       <c r="N14">
@@ -8452,11 +8455,11 @@
         <v>60678.8</v>
       </c>
       <c r="L15">
-        <f>C15/C3 - 1</f>
+        <f t="shared" si="0"/>
         <v>-0.58491035856573703</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:N78" si="0">D15/D3 - 1</f>
+        <f t="shared" ref="N15:N78" si="1">D15/D3 - 1</f>
         <v>2.6206104774502803E-2</v>
       </c>
     </row>
@@ -8492,7 +8495,7 @@
         <v>60120.79</v>
       </c>
       <c r="L16">
-        <f>C16/C4 - 1</f>
+        <f t="shared" si="0"/>
         <v>3.7382777373356824E-2</v>
       </c>
       <c r="M16">
@@ -8500,7 +8503,7 @@
         <v>-0.21184852342348001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17932277260916929</v>
       </c>
       <c r="O16">
@@ -8540,7 +8543,7 @@
         <v>63402.58</v>
       </c>
       <c r="L17">
-        <f>C17/C5 - 1</f>
+        <f t="shared" si="0"/>
         <v>0.13733327136682627</v>
       </c>
       <c r="M17">
@@ -8588,19 +8591,19 @@
         <v>65267.1</v>
       </c>
       <c r="L18">
-        <f>C18/C6 - 1</f>
+        <f t="shared" si="0"/>
         <v>0.22306770208995674</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M17:M80" si="1">AVERAGE(L16:L18)</f>
+        <f t="shared" ref="M18:M80" si="2">AVERAGE(L16:L18)</f>
         <v>0.13259458361004661</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30456936613903896</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O17:O80" si="2">AVERAGE(N16:N18)</f>
+        <f t="shared" ref="O18:O80" si="3">AVERAGE(N16:N18)</f>
         <v>0.20059316983143782</v>
       </c>
     </row>
@@ -8636,19 +8639,19 @@
         <v>62942.07</v>
       </c>
       <c r="L19">
-        <f>C19/C7 - 1</f>
+        <f t="shared" si="0"/>
         <v>0.13168000740295183</v>
       </c>
       <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0.1640269936199116</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="1"/>
-        <v>0.1640269936199116</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
         <v>0.31656798269571107</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24634157319361841</v>
       </c>
     </row>
@@ -8684,19 +8687,19 @@
         <v>63339.66</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L15:L78" si="3">C20/C8 - 1</f>
+        <f t="shared" ref="L20:L78" si="4">C20/C8 - 1</f>
         <v>0.13842887473460719</v>
       </c>
       <c r="M20">
+        <f t="shared" si="2"/>
+        <v>0.16439219474250524</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="1"/>
-        <v>0.16439219474250524</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
         <v>0.37133298436468731</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33082344439981243</v>
       </c>
     </row>
@@ -8732,19 +8735,19 @@
         <v>58890.09</v>
       </c>
       <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0.11587359244460593</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0.12866082486072164</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0.38170595302208055</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="3"/>
-        <v>0.11587359244460593</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>0.12866082486072164</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0.38170595302208055</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
         <v>0.35653564002749299</v>
       </c>
     </row>
@@ -8780,19 +8783,19 @@
         <v>62147.63</v>
       </c>
       <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.10712565309222954</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0.12047604009048089</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0.44920916856973703</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="3"/>
-        <v>0.10712565309222954</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>0.12047604009048089</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>0.44920916856973703</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
         <v>0.40074936865216831</v>
       </c>
     </row>
@@ -8828,19 +8831,19 @@
         <v>64891.83</v>
       </c>
       <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0.21680321533467306</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.14660082029050284</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.75433064063242483</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="3"/>
-        <v>0.21680321533467306</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>0.14660082029050284</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>0.75433064063242483</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
         <v>0.52841525407474743</v>
       </c>
     </row>
@@ -8876,19 +8879,19 @@
         <v>72881.429999999993</v>
       </c>
       <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0.16133009264151599</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>0.16175298702280619</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.78827981100344369</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="3"/>
-        <v>0.16133009264151599</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0.16175298702280619</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>0.78827981100344369</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
         <v>0.66393987340186855</v>
       </c>
     </row>
@@ -8924,19 +8927,19 @@
         <v>82247.92</v>
       </c>
       <c r="L25">
+        <f t="shared" si="4"/>
+        <v>4.3143088991073775E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>0.14042546565575428</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.6957149517950878</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="3"/>
-        <v>4.3143088991073775E-2</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0.14042546565575428</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>0.6957149517950878</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
         <v>0.74610846781031881</v>
       </c>
     </row>
@@ -8972,19 +8975,19 @@
         <v>91294.6</v>
       </c>
       <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0.48185980979218024</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>0.22877766380825668</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>1.2058504875406282</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="3"/>
-        <v>0.48185980979218024</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>0.22877766380825668</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>1.2058504875406282</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
         <v>0.89661508344638652</v>
       </c>
     </row>
@@ -9020,19 +9023,19 @@
         <v>93904.35</v>
       </c>
       <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0.62177564487102588</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>0.38225951455142665</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.83911763990563504</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="3"/>
-        <v>0.62177564487102588</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>0.38225951455142665</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>0.83911763990563504</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
         <v>0.91356102641378367</v>
       </c>
     </row>
@@ -9068,19 +9071,19 @@
         <v>95272.78</v>
       </c>
       <c r="L28">
+        <f t="shared" si="4"/>
+        <v>0.23788491703128867</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>0.44717345723149826</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.5762233040759035</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="3"/>
-        <v>0.23788491703128867</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>0.44717345723149826</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>0.5762233040759035</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
         <v>0.87373047717405561</v>
       </c>
     </row>
@@ -9116,19 +9119,19 @@
         <v>96186.83</v>
       </c>
       <c r="L29">
+        <f t="shared" si="4"/>
+        <v>0.25314645308924488</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0.37093567166385316</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.65471236230110152</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="3"/>
-        <v>0.25314645308924488</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>0.37093567166385316</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>0.65471236230110152</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
         <v>0.69001776876087995</v>
       </c>
     </row>
@@ -9164,19 +9167,19 @@
         <v>98862.74</v>
       </c>
       <c r="L30">
+        <f t="shared" si="4"/>
+        <v>0.24476925043678355</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>0.2452668735191057</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.60760912806046807</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="3"/>
-        <v>0.24476925043678355</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>0.2452668735191057</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>0.60760912806046807</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
         <v>0.61284826481249099</v>
       </c>
     </row>
@@ -9212,19 +9215,19 @@
         <v>97570.91</v>
       </c>
       <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0.17805306840017998</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>0.22532292397540279</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.52218792525473789</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="3"/>
-        <v>0.17805306840017998</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>0.22532292397540279</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0.52218792525473789</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="2"/>
         <v>0.59483647187210253</v>
       </c>
     </row>
@@ -9260,19 +9263,19 @@
         <v>90641.65</v>
       </c>
       <c r="L32">
+        <f t="shared" si="4"/>
+        <v>0.25778109329023158</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0.22686780404239837</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.51705252676126467</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="3"/>
-        <v>0.25778109329023158</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>0.22686780404239837</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>0.51705252676126467</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="2"/>
         <v>0.54894986002549018</v>
       </c>
     </row>
@@ -9308,19 +9311,19 @@
         <v>84607.39</v>
       </c>
       <c r="L33">
+        <f t="shared" si="4"/>
+        <v>0.21202256944444442</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0.21595224371161867</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0.38985998261026</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="3"/>
-        <v>0.21202256944444442</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="1"/>
-        <v>0.21595224371161867</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>0.38985998261026</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="2"/>
         <v>0.47636681154208754</v>
       </c>
     </row>
@@ -9356,19 +9359,19 @@
         <v>86054.87</v>
       </c>
       <c r="L34">
+        <f t="shared" si="4"/>
+        <v>9.1907088827900107E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0.18723691718752536</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0.30438017975954246</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="3"/>
-        <v>9.1907088827900107E-2</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>0.18723691718752536</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>0.30438017975954246</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="2"/>
         <v>0.40376422971035569</v>
       </c>
     </row>
@@ -9404,19 +9407,19 @@
         <v>86432.81</v>
       </c>
       <c r="L35">
+        <f t="shared" si="4"/>
+        <v>0.10823858222702154</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>0.1373894134997887</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0.30944817906478539</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="3"/>
-        <v>0.10823858222702154</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="1"/>
-        <v>0.1373894134997887</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>0.30944817906478539</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="2"/>
         <v>0.33456278047819593</v>
       </c>
     </row>
@@ -9452,19 +9455,19 @@
         <v>90629.11</v>
       </c>
       <c r="L36">
+        <f t="shared" si="4"/>
+        <v>4.9895356243744082E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>8.3347009099555239E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0.17950985770423533</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="3"/>
-        <v>4.9895356243744082E-2</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="1"/>
-        <v>8.3347009099555239E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>0.17950985770423533</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="2"/>
         <v>0.26444607217618771</v>
       </c>
     </row>
@@ -9500,19 +9503,19 @@
         <v>92308.41</v>
       </c>
       <c r="L37">
+        <f t="shared" si="4"/>
+        <v>-7.693504472967716E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>2.7066297913696153E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>7.8896250765014164E-2</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="3"/>
-        <v>-7.693504472967716E-2</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="1"/>
-        <v>2.7066297913696153E-2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>7.8896250765014164E-2</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="2"/>
         <v>0.18928476251134496</v>
       </c>
     </row>
@@ -9548,19 +9551,19 @@
         <v>93681.5</v>
       </c>
       <c r="L38">
+        <f t="shared" si="4"/>
+        <v>8.6047064416448826E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>1.9669125310171915E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>3.1118439517260787E-2</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="3"/>
-        <v>8.6047064416448826E-2</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="1"/>
-        <v>1.9669125310171915E-2</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>3.1118439517260787E-2</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="2"/>
         <v>9.6508182662170094E-2</v>
       </c>
     </row>
@@ -9596,19 +9599,19 @@
         <v>95478.34</v>
       </c>
       <c r="L39">
+        <f t="shared" si="4"/>
+        <v>6.5063806177177774E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>2.4725275287983146E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>2.7717901585580407E-2</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="3"/>
-        <v>6.5063806177177774E-2</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>2.4725275287983146E-2</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
-        <v>2.7717901585580407E-2</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="2"/>
         <v>4.5910863955951786E-2</v>
       </c>
     </row>
@@ -9644,19 +9647,19 @@
         <v>86633.1</v>
       </c>
       <c r="L40">
+        <f t="shared" si="4"/>
+        <v>-6.7624795758444711E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>2.7828691611727296E-2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>-0.13464768410492256</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="3"/>
-        <v>-6.7624795758444711E-2</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="1"/>
-        <v>2.7828691611727296E-2</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>-0.13464768410492256</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="2"/>
         <v>-2.5270447667360457E-2</v>
       </c>
     </row>
@@ -9692,19 +9695,19 @@
         <v>80205.61</v>
       </c>
       <c r="L41">
+        <f t="shared" si="4"/>
+        <v>-5.9901522809534646E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>-2.0820837463600528E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>-0.12487187344795159</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="3"/>
-        <v>-5.9901522809534646E-2</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="1"/>
-        <v>-2.0820837463600528E-2</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="0"/>
-        <v>-0.12487187344795159</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="2"/>
         <v>-7.726721865576458E-2</v>
       </c>
     </row>
@@ -9740,19 +9743,19 @@
         <v>73363.53</v>
       </c>
       <c r="L42">
+        <f t="shared" si="4"/>
+        <v>-0.1694567115127863</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>-9.8994343360255213E-2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>-0.29178664627013406</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="3"/>
-        <v>-0.1694567115127863</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="1"/>
-        <v>-9.8994343360255213E-2</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>-0.29178664627013406</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="2"/>
         <v>-0.1837687346076694</v>
       </c>
     </row>
@@ -9788,19 +9791,19 @@
         <v>80413.789999999994</v>
       </c>
       <c r="L43">
+        <f t="shared" si="4"/>
+        <v>-5.9415561879641809E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>-9.6257932067320917E-2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>-0.22560071518904534</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="3"/>
-        <v>-5.9415561879641809E-2</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="1"/>
-        <v>-9.6257932067320917E-2</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="0"/>
-        <v>-0.22560071518904534</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="2"/>
         <v>-0.21408641163571032</v>
       </c>
     </row>
@@ -9836,19 +9839,19 @@
         <v>74135.850000000006</v>
       </c>
       <c r="L44">
+        <f t="shared" si="4"/>
+        <v>-0.20181884081847834</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>-0.14356370473696881</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>-0.13614484192101517</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="3"/>
-        <v>-0.20181884081847834</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="1"/>
-        <v>-0.14356370473696881</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="0"/>
-        <v>-0.13614484192101517</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="2"/>
         <v>-0.21784406779339818</v>
       </c>
     </row>
@@ -9884,19 +9887,19 @@
         <v>76778.7</v>
       </c>
       <c r="L45">
+        <f t="shared" si="4"/>
+        <v>-0.16153387048642198</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>-0.14092275772818072</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>-0.11490421951850893</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="3"/>
-        <v>-0.16153387048642198</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="1"/>
-        <v>-0.14092275772818072</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="0"/>
-        <v>-0.11490421951850893</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="2"/>
         <v>-0.15888325887618981</v>
       </c>
     </row>
@@ -9932,19 +9935,19 @@
         <v>73046.84</v>
       </c>
       <c r="L46">
+        <f t="shared" si="4"/>
+        <v>-9.7872731731240781E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>-0.15374181434538037</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>-8.834748369632095E-2</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="3"/>
-        <v>-9.7872731731240781E-2</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="1"/>
-        <v>-0.15374181434538037</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="0"/>
-        <v>-8.834748369632095E-2</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="2"/>
         <v>-0.11313218171194835</v>
       </c>
     </row>
@@ -9980,19 +9983,19 @@
         <v>72484.78</v>
       </c>
       <c r="L47">
+        <f t="shared" si="4"/>
+        <v>-0.10445921935003155</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>-0.12128860718923144</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>-0.12698860431005299</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="3"/>
-        <v>-0.10445921935003155</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="1"/>
-        <v>-0.12128860718923144</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="0"/>
-        <v>-0.12698860431005299</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="2"/>
         <v>-0.11008010250829429</v>
       </c>
     </row>
@@ -10028,19 +10031,19 @@
         <v>82837.8</v>
       </c>
       <c r="L48">
+        <f t="shared" si="4"/>
+        <v>-0.10137516611775577</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>-0.10123570573300937</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>-0.12562289402496318</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="3"/>
-        <v>-0.10137516611775577</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="1"/>
-        <v>-0.10123570573300937</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="0"/>
-        <v>-0.12562289402496318</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="2"/>
         <v>-0.11365299401044571</v>
       </c>
     </row>
@@ -10076,19 +10079,19 @@
         <v>89405.91</v>
       </c>
       <c r="L49">
+        <f t="shared" si="4"/>
+        <v>8.0060677566156091E-3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>-6.5942772570390565E-2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>-5.4012726286193358E-3</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="3"/>
-        <v>8.0060677566156091E-3</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="1"/>
-        <v>-6.5942772570390565E-2</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="0"/>
-        <v>-5.4012726286193358E-3</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="2"/>
         <v>-8.6004256987878502E-2</v>
       </c>
     </row>
@@ -10124,19 +10127,19 @@
         <v>97575.28</v>
       </c>
       <c r="L50">
+        <f t="shared" si="4"/>
+        <v>-2.5300941124972609E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>-3.9556679828704255E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>4.3822938994930505E-2</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="3"/>
-        <v>-2.5300941124972609E-2</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="1"/>
-        <v>-3.9556679828704255E-2</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="0"/>
-        <v>4.3822938994930505E-2</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="2"/>
         <v>-2.9067075886217337E-2</v>
       </c>
     </row>
@@ -10172,19 +10175,19 @@
         <v>105743.11</v>
       </c>
       <c r="L51">
+        <f t="shared" si="4"/>
+        <v>5.4872542890880283E-3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>-3.9358730264229909E-3</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>0.11717171717171726</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="3"/>
-        <v>5.4872542890880283E-3</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="1"/>
-        <v>-3.9358730264229909E-3</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="0"/>
-        <v>0.11717171717171726</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="2"/>
         <v>5.1864461179342812E-2</v>
       </c>
     </row>
@@ -10220,19 +10223,19 @@
         <v>106797.69</v>
       </c>
       <c r="L52">
+        <f t="shared" si="4"/>
+        <v>0.16422874718357705</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>4.8138353449230821E-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>0.31290381408920376</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="3"/>
-        <v>0.16422874718357705</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="1"/>
-        <v>4.8138353449230821E-2</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="0"/>
-        <v>0.31290381408920376</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="2"/>
         <v>0.1579661567519505</v>
       </c>
     </row>
@@ -10268,19 +10271,19 @@
         <v>74759.58</v>
       </c>
       <c r="L53">
+        <f t="shared" si="4"/>
+        <v>-0.31345820326049256</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>-4.7914067262609161E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>-6.0906105100463681E-2</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="3"/>
-        <v>-0.31345820326049256</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="1"/>
-        <v>-4.7914067262609161E-2</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="0"/>
-        <v>-6.0906105100463681E-2</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="2"/>
         <v>0.12305647538681912</v>
       </c>
     </row>
@@ -10316,19 +10319,19 @@
         <v>81915.94</v>
       </c>
       <c r="L54">
+        <f t="shared" si="4"/>
+        <v>0.21198631548575908</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>2.0918953136281188E-2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>1.4405285643949606E-2</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="3"/>
-        <v>0.21198631548575908</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="1"/>
-        <v>2.0918953136281188E-2</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="0"/>
-        <v>1.4405285643949606E-2</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="2"/>
         <v>8.8800998210896556E-2</v>
       </c>
     </row>
@@ -10364,19 +10367,19 @@
         <v>88282.49</v>
       </c>
       <c r="L55">
+        <f t="shared" si="4"/>
+        <v>0.4994465353110471</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>0.13265821584543788</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>0.21956610494009654</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="3"/>
-        <v>0.4994465353110471</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="1"/>
-        <v>0.13265821584543788</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="0"/>
-        <v>0.21956610494009654</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="2"/>
         <v>5.7688428494527488E-2</v>
       </c>
     </row>
@@ -10412,19 +10415,19 @@
         <v>102096.79</v>
       </c>
       <c r="L56">
+        <f t="shared" si="4"/>
+        <v>0.99285832232496696</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>0.56809705770725771</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>0.36265434053061485</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="3"/>
-        <v>0.99285832232496696</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="1"/>
-        <v>0.56809705770725771</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="0"/>
-        <v>0.36265434053061485</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="2"/>
         <v>0.19887524370488699</v>
       </c>
     </row>
@@ -10460,19 +10463,19 @@
         <v>110346.62</v>
       </c>
       <c r="L57">
+        <f t="shared" si="4"/>
+        <v>0.81919777912232616</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>0.77050087891944674</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>0.37984864548678399</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="3"/>
-        <v>0.81919777912232616</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="1"/>
-        <v>0.77050087891944674</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="0"/>
-        <v>0.37984864548678399</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="2"/>
         <v>0.32068969698583177</v>
       </c>
     </row>
@@ -10508,19 +10511,19 @@
         <v>129378.99</v>
       </c>
       <c r="L58">
+        <f t="shared" si="4"/>
+        <v>0.89099928646665072</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>0.90101846263798124</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>0.75951852169965273</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="3"/>
-        <v>0.89099928646665072</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="1"/>
-        <v>0.90101846263798124</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="0"/>
-        <v>0.75951852169965273</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="2"/>
         <v>0.50067383590568382</v>
       </c>
     </row>
@@ -10556,19 +10559,19 @@
         <v>136796.34</v>
       </c>
       <c r="L59">
+        <f t="shared" si="4"/>
+        <v>0.86220359051489637</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>0.85746688536795779</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>0.66294022617124404</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="3"/>
-        <v>0.86220359051489637</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="1"/>
-        <v>0.85746688536795779</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="0"/>
-        <v>0.66294022617124404</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="2"/>
         <v>0.60076913111922692</v>
       </c>
     </row>
@@ -10604,19 +10607,19 @@
         <v>134068.99</v>
       </c>
       <c r="L60">
+        <f t="shared" si="4"/>
+        <v>0.50679954991158982</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>0.75333414229771234</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="1"/>
+        <v>0.54007815892314381</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="3"/>
-        <v>0.50679954991158982</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="1"/>
-        <v>0.75333414229771234</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="0"/>
-        <v>0.54007815892314381</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="2"/>
         <v>0.65417896893134686</v>
       </c>
     </row>
@@ -10652,19 +10655,19 @@
         <v>127787.3</v>
       </c>
       <c r="L61">
+        <f t="shared" si="4"/>
+        <v>0.39547975364378685</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>0.58816096469009105</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="1"/>
+        <v>0.33708598870897077</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="3"/>
-        <v>0.39547975364378685</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="1"/>
-        <v>0.58816096469009105</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="0"/>
-        <v>0.33708598870897077</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="2"/>
         <v>0.51336812460111958</v>
       </c>
     </row>
@@ -10700,19 +10703,19 @@
         <v>114269.41</v>
       </c>
       <c r="L62">
+        <f t="shared" si="4"/>
+        <v>0.15920420352988729</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>0.35382783569508797</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="1"/>
+        <v>0.13155578734639328</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="3"/>
-        <v>0.15920420352988729</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="1"/>
-        <v>0.35382783569508797</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="0"/>
-        <v>0.13155578734639328</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="2"/>
         <v>0.33623997832616931</v>
       </c>
     </row>
@@ -10748,19 +10751,19 @@
         <v>127486.62</v>
       </c>
       <c r="L63">
+        <f t="shared" si="4"/>
+        <v>0.26253799392097266</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>0.27240731703154891</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>0.25190910033286884</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="3"/>
-        <v>0.26253799392097266</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="1"/>
-        <v>0.27240731703154891</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="0"/>
-        <v>0.25190910033286884</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="2"/>
         <v>0.2401836254627443</v>
       </c>
     </row>
@@ -10796,19 +10799,19 @@
         <v>138080.60999999999</v>
       </c>
       <c r="L64">
+        <f t="shared" si="4"/>
+        <v>0.30534820139464869</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>0.24236346628183622</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>0.34854994096577996</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="3"/>
-        <v>0.30534820139464869</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="1"/>
-        <v>0.24236346628183622</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="0"/>
-        <v>0.34854994096577996</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="2"/>
         <v>0.2440049428816807</v>
       </c>
     </row>
@@ -10844,19 +10847,19 @@
         <v>141927.29999999999</v>
       </c>
       <c r="L65">
+        <f t="shared" si="4"/>
+        <v>1.333350174304047</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>0.63374545653988945</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>0.87153474258087749</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="3"/>
-        <v>1.333350174304047</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="1"/>
-        <v>0.63374545653988945</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="0"/>
-        <v>0.87153474258087749</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="2"/>
         <v>0.49066459462650874</v>
       </c>
     </row>
@@ -10892,19 +10895,19 @@
         <v>129507.76</v>
       </c>
       <c r="L66">
+        <f t="shared" si="4"/>
+        <v>0.25214256563732818</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>0.63028031377867466</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>0.7516204790981682</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="3"/>
-        <v>0.25214256563732818</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="1"/>
-        <v>0.63028031377867466</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
-        <v>0.7516204790981682</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="2"/>
         <v>0.65723505421494188</v>
       </c>
     </row>
@@ -10940,19 +10943,19 @@
         <v>127235.92</v>
       </c>
       <c r="L67">
+        <f t="shared" si="4"/>
+        <v>0.30156503764949072</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="2"/>
+        <v>0.62901925919695534</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="1"/>
+        <v>0.45590866588938783</v>
+      </c>
+      <c r="O67">
         <f t="shared" si="3"/>
-        <v>0.30156503764949072</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="1"/>
-        <v>0.62901925919695534</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="0"/>
-        <v>0.45590866588938783</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="2"/>
         <v>0.69302129585614447</v>
       </c>
     </row>
@@ -10988,19 +10991,19 @@
         <v>121043.04</v>
       </c>
       <c r="L68">
+        <f t="shared" si="4"/>
+        <v>-0.41524598653547384</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="2"/>
+        <v>4.6153872250448348E-2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>0.14747867140015991</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="3"/>
-        <v>-0.41524598653547384</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="1"/>
-        <v>4.6153872250448348E-2</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="0"/>
-        <v>0.14747867140015991</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="2"/>
         <v>0.45166927212923863</v>
       </c>
     </row>
@@ -11036,19 +11039,19 @@
         <v>110596.79</v>
       </c>
       <c r="L69">
+        <f t="shared" si="4"/>
+        <v>-0.36275775717024694</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="2"/>
+        <v>-0.15881290201874335</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>4.6383876921989975E-2</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="3"/>
-        <v>-0.36275775717024694</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="1"/>
-        <v>-0.15881290201874335</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="0"/>
-        <v>4.6383876921989975E-2</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="2"/>
         <v>0.21659040473717925</v>
       </c>
     </row>
@@ -11084,19 +11087,19 @@
         <v>105708.7</v>
       </c>
       <c r="L70">
+        <f t="shared" si="4"/>
+        <v>-0.33034462931685049</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="2"/>
+        <v>-0.36944945767419046</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>-0.15800668066025569</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="3"/>
-        <v>-0.33034462931685049</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="1"/>
-        <v>-0.36944945767419046</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="0"/>
-        <v>-0.15800668066025569</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="2"/>
         <v>1.1951955887298063E-2</v>
       </c>
     </row>
@@ -11132,19 +11135,19 @@
         <v>108990.81</v>
       </c>
       <c r="L71">
+        <f t="shared" si="4"/>
+        <v>-0.32628196315644764</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="2"/>
+        <v>-0.33979478321451501</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>-0.2044377088676459</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="3"/>
-        <v>-0.32628196315644764</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="1"/>
-        <v>-0.33979478321451501</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="0"/>
-        <v>-0.2044377088676459</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="2"/>
         <v>-0.10535350420197054</v>
       </c>
     </row>
@@ -11180,19 +11183,19 @@
         <v>105055.63</v>
       </c>
       <c r="L72">
+        <f t="shared" si="4"/>
+        <v>-7.5529667797478051E-2</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="2"/>
+        <v>-0.24405208675692538</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>-0.19298381639787976</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="3"/>
-        <v>-7.5529667797478051E-2</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="1"/>
-        <v>-0.24405208675692538</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="0"/>
-        <v>-0.19298381639787976</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="2"/>
         <v>-0.18514273530859379</v>
       </c>
     </row>
@@ -11228,19 +11231,19 @@
         <v>105528.08</v>
       </c>
       <c r="L73">
+        <f t="shared" si="4"/>
+        <v>9.1264927906698157E-2</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="2"/>
+        <v>-0.10351556768240917</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>-0.14657954278507934</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="3"/>
-        <v>9.1264927906698157E-2</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="1"/>
-        <v>-0.10351556768240917</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="0"/>
-        <v>-0.14657954278507934</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="2"/>
         <v>-0.18133368935020167</v>
       </c>
     </row>
@@ -11276,19 +11279,19 @@
         <v>108956.55</v>
       </c>
       <c r="L74">
+        <f t="shared" si="4"/>
+        <v>0.21916163024949631</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="2"/>
+        <v>7.8298963452905476E-2</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>-8.3177300878582772E-2</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="3"/>
-        <v>0.21916163024949631</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="1"/>
-        <v>7.8298963452905476E-2</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="0"/>
-        <v>-8.3177300878582772E-2</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="2"/>
         <v>-0.14091355335384728</v>
       </c>
     </row>
@@ -11324,19 +11327,19 @@
         <v>112073.9</v>
       </c>
       <c r="L75">
+        <f t="shared" si="4"/>
+        <v>0.18723497387355348</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="2"/>
+        <v>0.16588717734324931</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>-0.14910020976704819</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="3"/>
-        <v>0.18723497387355348</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="1"/>
-        <v>0.16588717734324931</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="0"/>
-        <v>-0.14910020976704819</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="2"/>
         <v>-0.12628568447690344</v>
       </c>
     </row>
@@ -11372,19 +11375,19 @@
         <v>103269.63</v>
       </c>
       <c r="L76">
+        <f t="shared" si="4"/>
+        <v>0.46699456381050997</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="2"/>
+        <v>0.29113038931118657</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>-0.25880855509531409</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="3"/>
-        <v>0.46699456381050997</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="1"/>
-        <v>0.29113038931118657</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="0"/>
-        <v>-0.25880855509531409</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="2"/>
         <v>-0.16369535524698167</v>
       </c>
     </row>
@@ -11420,19 +11423,19 @@
         <v>29502.68</v>
       </c>
       <c r="L77">
+        <f t="shared" si="4"/>
+        <v>-0.55930625324787808</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="2"/>
+        <v>3.1641094812061787E-2</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>-0.79880181102416303</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="3"/>
-        <v>-0.55930625324787808</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="1"/>
-        <v>3.1641094812061787E-2</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="0"/>
-        <v>-0.79880181102416303</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="2"/>
         <v>-0.40223685862884179</v>
       </c>
     </row>
@@ -11468,19 +11471,19 @@
         <v>35251.24</v>
       </c>
       <c r="L78">
+        <f t="shared" si="4"/>
+        <v>-0.58729425824325054</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="2"/>
+        <v>-0.22653531589353956</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>-0.80669669991776605</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="3"/>
-        <v>-0.58729425824325054</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="1"/>
-        <v>-0.22653531589353956</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="0"/>
-        <v>-0.80669669991776605</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="2"/>
         <v>-0.62143568867908106</v>
       </c>
     </row>
@@ -11516,19 +11519,19 @@
         <v>44415.199999999997</v>
       </c>
       <c r="L79">
-        <f t="shared" ref="L79:L93" si="4">C79/C67 - 1</f>
+        <f t="shared" ref="L79:L93" si="5">C79/C67 - 1</f>
         <v>-0.58451969069631149</v>
       </c>
       <c r="M79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.57704006739581337</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79:N93" si="5">D79/D67 - 1</f>
+        <f t="shared" ref="N79:N93" si="6">D79/D67 - 1</f>
         <v>-0.65317433258537438</v>
       </c>
       <c r="O79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.75289094784243449</v>
       </c>
     </row>
@@ -11564,19 +11567,19 @@
         <v>66017.679999999993</v>
       </c>
       <c r="L80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.5262318891919682E-2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.40902542261049391</v>
       </c>
       <c r="N80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.47198127495525266</v>
       </c>
       <c r="O80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.6439507691527977</v>
       </c>
     </row>
@@ -11612,19 +11615,19 @@
         <v>76336.5</v>
       </c>
       <c r="L81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8552130664374342E-3</v>
       </c>
       <c r="M81">
-        <f t="shared" ref="M81:M93" si="6">AVERAGE(L79:L81)</f>
+        <f t="shared" ref="M81:M93" si="7">AVERAGE(L79:L81)</f>
         <v>-0.21230893217393124</v>
       </c>
       <c r="N81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.24474810307137851</v>
       </c>
       <c r="O81">
-        <f t="shared" ref="O81:O92" si="7">AVERAGE(N79:N81)</f>
+        <f t="shared" ref="O81:O92" si="8">AVERAGE(N79:N81)</f>
         <v>-0.45663457020400183</v>
       </c>
     </row>
@@ -11660,19 +11663,19 @@
         <v>84337.22</v>
       </c>
       <c r="L82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5866001234269742E-2</v>
       </c>
       <c r="M82">
+        <f t="shared" si="7"/>
+        <v>-2.6091035686583997E-2</v>
+      </c>
+      <c r="N82">
         <f t="shared" si="6"/>
-        <v>-2.6091035686583997E-2</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="5"/>
         <v>-0.16706835292071454</v>
       </c>
       <c r="O82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.29459924364911522</v>
       </c>
     </row>
@@ -11708,19 +11711,19 @@
         <v>86279.46</v>
       </c>
       <c r="L83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.29929855885728862</v>
       </c>
       <c r="M83">
+        <f t="shared" si="7"/>
+        <v>-0.10743644900837364</v>
+      </c>
+      <c r="N83">
         <f t="shared" si="6"/>
-        <v>-0.10743644900837364</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="5"/>
         <v>-0.18518699425259288</v>
       </c>
       <c r="O83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.19900115008156197</v>
       </c>
     </row>
@@ -11756,19 +11759,19 @@
         <v>86741.56</v>
       </c>
       <c r="L84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.19942763507119943</v>
       </c>
       <c r="M84">
+        <f t="shared" si="7"/>
+        <v>-0.17486406505425259</v>
+      </c>
+      <c r="N84">
         <f t="shared" si="6"/>
-        <v>-0.17486406505425259</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="5"/>
         <v>-0.1760631654336946</v>
       </c>
       <c r="O84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.17610617086900068</v>
       </c>
     </row>
@@ -11804,19 +11807,19 @@
         <v>91448.37</v>
       </c>
       <c r="L85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9575433716418926E-2</v>
       </c>
       <c r="M85">
+        <f t="shared" si="7"/>
+        <v>-0.14971692007068971</v>
+      </c>
+      <c r="N85">
         <f t="shared" si="6"/>
-        <v>-0.14971692007068971</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="5"/>
         <v>-0.13730432955936578</v>
       </c>
       <c r="O85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.16618482974855109</v>
       </c>
     </row>
@@ -11852,19 +11855,19 @@
         <v>98786.19</v>
       </c>
       <c r="L86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.36073596237567129</v>
       </c>
       <c r="M86">
+        <f t="shared" si="7"/>
+        <v>-0.17019605457681727</v>
+      </c>
+      <c r="N86">
         <f t="shared" si="6"/>
-        <v>-0.17019605457681727</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="5"/>
         <v>-0.100636242243343</v>
       </c>
       <c r="O86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.13800124574546779</v>
       </c>
     </row>
@@ -11900,19 +11903,19 @@
         <v>102766.68</v>
       </c>
       <c r="L87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.25605456598382381</v>
       </c>
       <c r="M87">
+        <f t="shared" si="7"/>
+        <v>-0.18907169821435874</v>
+      </c>
+      <c r="N87">
         <f t="shared" si="6"/>
-        <v>-0.18907169821435874</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="5"/>
         <v>-0.10710810284799865</v>
       </c>
       <c r="O87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.11501622488356915</v>
       </c>
     </row>
@@ -11948,19 +11951,19 @@
         <v>111252.24</v>
       </c>
       <c r="L88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.27291977477260698</v>
       </c>
       <c r="M88">
+        <f t="shared" si="7"/>
+        <v>-0.29657010104403403</v>
+      </c>
+      <c r="N88">
         <f t="shared" si="6"/>
-        <v>-0.29657010104403403</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="5"/>
         <v>8.113795636378085E-2</v>
       </c>
       <c r="O88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.2202129575853599E-2</v>
       </c>
     </row>
@@ -11996,19 +11999,19 @@
         <v>115286.89</v>
       </c>
       <c r="L89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0435807988994252</v>
       </c>
       <c r="M89">
+        <f t="shared" si="7"/>
+        <v>0.1715354860476648</v>
+      </c>
+      <c r="N89">
         <f t="shared" si="6"/>
-        <v>0.1715354860476648</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="5"/>
         <v>2.8240737578965343</v>
       </c>
       <c r="O89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93270120380410548</v>
       </c>
     </row>
@@ -12044,19 +12047,19 @@
         <v>123475.44</v>
       </c>
       <c r="L90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8576505429417574</v>
       </c>
       <c r="M90">
+        <f t="shared" si="7"/>
+        <v>0.8761038556895252</v>
+      </c>
+      <c r="N90">
         <f t="shared" si="6"/>
-        <v>0.8761038556895252</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="5"/>
         <v>4.3010727827614907</v>
       </c>
       <c r="O90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4020948323406022</v>
       </c>
     </row>
@@ -12092,19 +12095,19 @@
         <v>122643.16</v>
       </c>
       <c r="L91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0538314524936294</v>
       </c>
       <c r="M91">
+        <f t="shared" si="7"/>
+        <v>1.3183542647782707</v>
+      </c>
+      <c r="N91">
         <f t="shared" si="6"/>
-        <v>1.3183542647782707</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="5"/>
         <v>1.8098395135110419</v>
       </c>
       <c r="O91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9783286847230221</v>
       </c>
     </row>
@@ -12140,19 +12143,19 @@
         <v>120270.65</v>
       </c>
       <c r="L92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91803217218493383</v>
       </c>
       <c r="M92">
+        <f t="shared" si="7"/>
+        <v>1.2765047225401069</v>
+      </c>
+      <c r="N92">
         <f t="shared" si="6"/>
-        <v>1.2765047225401069</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="5"/>
         <v>0.83464989646445287</v>
       </c>
       <c r="O92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3151873975789949</v>
       </c>
     </row>
@@ -12188,15 +12191,15 @@
         <v>126386.29</v>
       </c>
       <c r="L93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3216286545231899</v>
       </c>
       <c r="M93">
+        <f t="shared" si="7"/>
+        <v>1.0978307597339176</v>
+      </c>
+      <c r="N93">
         <f t="shared" si="6"/>
-        <v>1.0978307597339176</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="5"/>
         <v>0.56930366661824028</v>
       </c>
       <c r="O93">
@@ -12206,7 +12209,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B94">
         <v>5.8299999999999998E-2</v>
@@ -12236,15 +12239,15 @@
         <v>132437.89000000001</v>
       </c>
       <c r="L94">
-        <f t="shared" ref="L94" si="8">C94/C82 - 1</f>
+        <f t="shared" ref="L94" si="9">C94/C82 - 1</f>
         <v>1.5622366065280264</v>
       </c>
       <c r="M94">
-        <f t="shared" ref="M94" si="9">AVERAGE(L92:L94)</f>
+        <f t="shared" ref="M94" si="10">AVERAGE(L92:L94)</f>
         <v>1.26729914441205</v>
       </c>
       <c r="N94">
-        <f t="shared" ref="N94" si="10">D94/D82 - 1</f>
+        <f t="shared" ref="N94" si="11">D94/D82 - 1</f>
         <v>0.44497807475464612</v>
       </c>
       <c r="O94">

--- a/wedge_research/data_sa.xlsx
+++ b/wedge_research/data_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1064C486-7C66-4207-90E4-6B675700A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127ECB1A-FB17-4C2D-98BA-D2EBB14A47AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5750" yWindow="580" windowWidth="15750" windowHeight="18730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2652,7 +2652,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F93" sqref="F93:H94"/>
     </sheetView>
   </sheetViews>
